--- a/aggregated_output/PATTAYA_aggregated.xlsx
+++ b/aggregated_output/PATTAYA_aggregated.xlsx
@@ -438,35 +438,35 @@
         <is>
           <t>Answer: YES
 Facets: Motivations, Information Processing Style
-Why: Abi is making travel arrangements and knowing where people are staying is a logical step in this process. This aligns with her motivation to accomplish her tasks effectively. Additionally, gathering information about accommodation options is part of her comprehensive information processing style, as it helps her form a complete understanding of her travel plans.</t>
+Why: Abi is making travel arrangements to attend ICSE 2019, and knowing where people are staying is a relevant step in her planning process. This information can help her decide on her own accommodation and ensure she is in a convenient location relative to other attendees. Given Abi's comprehensive information processing style, she would consider this a necessary step to gather all relevant details for her trip.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to attend the conference and make travel arrangements, which includes knowing where people are staying. This information is crucial for her to plan her accommodation and ensure she is in a convenient location relative to the conference venue. Additionally, Abi's comprehensive information processing style means she would consider gathering all relevant details, including accommodation options, as a necessary step in her planning process.</t>
+Why: Abi is making travel arrangements and knowing where people are staying is a logical step in this process. This information can help her decide on her own accommodation and ensure she is close to other attendees, which aligns with her motivations. Additionally, Abi's comprehensive information processing style means she would consider gathering all relevant information, including accommodation details, as part of her planning.</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to attend the conference and make travel arrangements, which includes knowing where people are staying. This information is crucial for her to plan her accommodation and ensure she is in a convenient location relative to the conference venue. Additionally, Abi's comprehensive information processing style means she would consider gathering all relevant details, including accommodation options, as a necessary step in her planning process.</t>
+Why: Abi is motivated to attend the conference and make travel arrangements, which includes knowing where people are staying. This information is crucial for her to plan her accommodation and possibly network with other attendees. Additionally, Abi's comprehensive information processing style means she would consider gathering all relevant details, including accommodation options, as a necessary step toward achieving her overall goal of attending the conference.</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: Motivations, Information Processing Style
-Why: Abi is motivated to attend the conference and make travel arrangements, which includes knowing where people are staying. This information is crucial for her to plan her accommodation effectively. Additionally, Abi's comprehensive information processing style means she would consider gathering all relevant details, including where other attendees are staying, as part of her planning process.</t>
+Why: Abi is making travel arrangements to attend ICSE 2019, and knowing where people are staying is a relevant step in her planning process. This information can help her decide on her own accommodation and ensure she is in proximity to other attendees, which aligns with her motivations. Additionally, Abi's comprehensive information processing style means she would consider gathering all relevant details, including accommodation options, to form a complete understanding of her travel plans.</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: Abi is making travel arrangements and knowing where people are staying is a logical step in this process. This aligns with her motivation to accomplish her tasks effectively. Additionally, gathering information about accommodation options is part of her comprehensive information processing style, as it helps her form a complete understanding of her travel plans.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to attend the conference and would likely consider knowing where people are staying as an important step in making her travel arrangements. This information can help her decide on her own accommodation and ensure she is close to other attendees, which can be beneficial for networking and convenience. Additionally, Abi's comprehensive information processing style means she would want to gather all relevant details, including accommodation options, to form a complete understanding of her travel plans.</t>
         </is>
       </c>
     </row>
@@ -475,72 +475,72 @@
         <is>
           <t>Answer: YES
 Facets: Information Processing Style, Motivations
-Why: The "Attending" section is clearly visible on the page, and it is logical for Abi to click on it to find information about where people are staying. This aligns with her motivation to gather necessary travel information and her comprehensive information processing style, as she would look for relevant sections that might provide the details she needs.</t>
+Why: The "Attending" section is clearly labeled and prominently displayed on the page. Given Abi's comprehensive information processing style, she would likely read through the available options and recognize that "Attending" is relevant to her goal of making travel arrangements and finding out where people are staying. The page provides a logical next step for her to gather more information.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Attending" section is clearly visible on the page, and it is reasonable for Abi to infer that information about where people are staying might be found under this section. Abi is motivated to find accommodation details, and her comprehensive information processing style would lead her to explore relevant sections like "Attending" to gather necessary information. The page layout and labeling provide sufficient guidance for her to take this action confidently.</t>
+Why: The "Attending" section is clearly visible on the page, and it is reasonable for Abi to infer that clicking on it will provide information relevant to attendees, including accommodation details. This aligns with her motivation to gather comprehensive information for her travel arrangements. The page layout and labeling are straightforward, making it easy for Abi to know what to do at this step.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Attending" section is clearly visible and logically placed under the main navigation menu. Abi, being motivated to gather information about the conference, would likely recognize that this section could contain relevant details about accommodation. Additionally, her comprehensive information processing style would lead her to explore this section to find the necessary information about where people are staying.</t>
+Why: The "Attending" section is clearly visible and labeled, which aligns with Abi's motivation to gather information about the conference, including where people are staying. The page layout is straightforward, and the "Attending" section is likely to contain relevant information about accommodation. This aligns with Abi's comprehensive information processing style, as she would logically consider this section to find details about where attendees are staying.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: Information Processing Style, Motivations
-Why: The "Attending" section is clearly visible on the page, and it is reasonable for Abi to infer that information about where people are staying might be found under this section. Abi's comprehensive information processing style would lead her to explore this section to gather relevant details for her travel arrangements. Additionally, her motivation to attend the conference and make necessary arrangements supports her taking this action.</t>
+Why: The "Attending" section is clearly visible on the page, and it is reasonable for Abi to infer that information about where people are staying might be found under this section. This aligns with her comprehensive information processing style, as she would look for relevant sections that could provide the information she needs. Additionally, her motivation to make travel arrangements and gather all necessary details supports her decision to click on the "Attending" section.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The "Attending" section is clearly visible on the page, and it is reasonable for Abi to infer that clicking on it will provide information relevant to attendees, such as accommodation options. This aligns with her comprehensive information processing style, as she would likely explore this section to gather necessary details. Additionally, the clear labeling supports her process-oriented learning style, making it straightforward for her to take this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Attending" section is clearly visible on the page, and it is reasonable for Abi to infer that clicking on it will provide information relevant to attendees, such as accommodation details. Abi's motivation to gather comprehensive information for her travel arrangements aligns with this action. Additionally, the clear labeling of the "Attending" section supports her information processing style, making it likely that she will know what to do at this step.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: After clicking on "Attending," Abi is presented with a dropdown menu that includes options such as "Accommodation" and "Venue: Fairmont The Queen Elizabeth Hotel." These options are directly related to her goal of finding out where people are staying. This clear and relevant information helps Abi know she is making progress toward her goal and provides her with the necessary details to continue her travel arrangements.</t>
+          <t>Answer: NO
+Facets: Computer Self-Efficacy, Information Processing Style, Learning Style
+Why: After clicking on "Attending," Abi is presented with a dropdown menu with multiple options. While "Accommodation" is listed, it is not immediately clear that this is where she can find information about where people are staying. Abi's low computer self-efficacy and preference for process-oriented learning mean she might feel uncertain about which option to choose next. Additionally, the dropdown menu does not provide comprehensive information directly, requiring further clicks and exploration, which might be overwhelming for Abi. Therefore, she might not feel confident that she is making progress toward her goal.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Attending," Abi will see a dropdown menu with several relevant options, including "Accommodation." This confirms that she is on the right track and making progress toward her goal of finding out where people are staying. The dropdown menu provides clear and specific options related to her travel arrangements, which aligns with her comprehensive information processing style. This will help her feel confident that she is gathering the necessary information to make her travel plans.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on "Attending," Abi is presented with a dropdown menu with multiple options. While "Accommodation" is listed, it is not immediately clear that this is where she will find information about where people are staying. Abi's comprehensive information processing style means she needs clear and direct information to feel confident she is making progress. Additionally, her low computer self-efficacy might make her hesitant to explore multiple options in the dropdown menu without clear guidance. This could lead to uncertainty about whether she is on the right track.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Attending," Abi will see a dropdown menu with several relevant options, including "Accommodation." This clearly indicates that she is on the right track to finding information about where people are staying. The presence of specific options related to her subgoal will reassure her that she is making progress toward her goal. Additionally, the comprehensive list of options aligns with her information processing style, allowing her to gather all necessary details systematically.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on "Attending," Abi is presented with a dropdown menu with multiple options. While "Accommodation" is listed, it is not immediately clear which option will provide the specific information she needs about where people are staying. Abi's comprehensive information processing style means she prefers clear and direct paths to information, and this dropdown menu might be overwhelming or confusing. Additionally, her low computer self-efficacy might make her hesitant to explore multiple options in the dropdown, fearing she might not find the right information or might get lost. Therefore, she might not feel confident that she is making progress toward her goal.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style, Attitude Towards Risk
-Why: After clicking on "Attending," Abi is presented with a dropdown menu with multiple options. While "Accommodation" is listed, it is not immediately clear that this is where she will find information about where people are staying. Abi's low computer self-efficacy and risk-averse nature might make her hesitant to click on an option without being certain it will provide the information she needs. Additionally, her comprehensive information processing style means she would prefer more explicit guidance to ensure she is making progress toward her goal. The dropdown menu might not provide enough clarity for her to feel confident she is on the right track.</t>
+          <t>Answer: YES
+Facets: Information Processing Style, Motivations
+Why: After clicking on "Attending," Abi is presented with a dropdown menu that includes options such as "Accommodation" and "Venue: Fairmont The Queen Elizabeth Hotel." These options are directly related to her subgoal of finding out where people are staying. This clear and relevant information will help Abi know that she is making progress toward her goal. The dropdown menu provides a straightforward path to the information she needs, aligning with her comprehensive information processing style and her motivation to make informed travel arrangements.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: After clicking on "Attending," Abi is presented with a dropdown menu that includes "Accommodation," which is directly relevant to her goal of finding out where people are staying. This clear and organized presentation of options aligns with her comprehensive information processing style and process-oriented learning style. She will know she is making progress toward her goal because the relevant option is explicitly listed, making it easy for her to proceed.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on "Attending," Abi is presented with a dropdown menu with multiple options. While "Accommodation" is listed, it is not immediately clear which option will provide the specific information she needs about where people are staying. Abi's comprehensive information processing style means she would prefer clear and direct information. Additionally, her low computer self-efficacy might make her hesitant to explore multiple options in the dropdown menu without clear guidance, potentially causing confusion and making her unsure if she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -549,35 +549,35 @@
         <is>
           <t>Answer: YES
 Facets: Information Processing Style, Motivations
-Why: The dropdown menu under "Attending" clearly lists "Accommodation" as an option. This is directly related to Abi's goal of finding out where people are staying. The page is straightforward and provides a logical next step for her to click on "Accommodation" to get the information she needs. This aligns with her motivation to gather necessary travel information and her comprehensive information processing style.</t>
+Why: The "Accommodation" option is clearly listed under the "Attending" dropdown menu. Given Abi's comprehensive information processing style, she would likely read through the available options and recognize that "Accommodation" is relevant to her goal of finding out where people are staying. The page provides a logical next step for her to gather more information, and the label "Accommodation" is straightforward and directly related to her subgoal.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Accommodation" option is clearly listed in the dropdown menu under "Attending." Abi, who is motivated to find out where people are staying, will recognize that clicking on "Accommodation" is the logical next step to gather this information. The page layout and labeling provide clear guidance, making it easy for her to know what to do at this step. This aligns with her comprehensive information processing style, as she will systematically explore relevant sections to gather all necessary details for her travel arrangements.</t>
+Why: The "Accommodation" option is clearly listed in the dropdown menu under "Attending." Abi, who is motivated to find out where people are staying, will likely recognize that "Accommodation" is the relevant link to click. The page layout is straightforward, and the labeling is clear, making it easy for Abi to know what to do at this step. This aligns with her comprehensive information processing style, as she can see that this option will likely provide the information she needs.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Accommodation" option is clearly listed in the dropdown menu under "Attending." Abi, who is motivated to find out where people are staying, will recognize that clicking on "Accommodation" is the logical next step. The clear labeling and organization of the menu align with her comprehensive information processing style, making it easy for her to understand what to do next and proceed with confidence.</t>
+Why: The "Accommodation" option is clearly listed in the dropdown menu under "Attending," which directly aligns with Abi's subgoal of finding out where people are staying. Given her motivation to attend the conference and gather necessary travel information, she would recognize that clicking on "Accommodation" is the logical next step. Additionally, the clear labeling of the option supports her comprehensive information processing style, making it straightforward for her to know what to do at this step.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: Information Processing Style, Motivations
-Why: The dropdown menu under "Attending" clearly lists "Accommodation" as an option. Given Abi's motivation to find out where people are staying and her comprehensive information processing style, she would recognize that clicking on "Accommodation" is a logical next step to gather the necessary information. The page provides a clear and direct path for her to follow, making it likely that she will take this action.</t>
+Why: The dropdown menu under "Attending" clearly lists "Accommodation" as an option. This is directly related to Abi's subgoal of finding out where people are staying. The label "Accommodation" is straightforward and indicates that clicking on it will likely provide information about lodging options. This aligns with Abi's comprehensive information processing style, as she would look for specific sections that could provide the information she needs. Additionally, her motivation to make informed travel arrangements supports her decision to click on "Accommodation."</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The "Accommodation" option is clearly listed in the dropdown menu under "Attending." This makes it straightforward for Abi to know what to do next. The clear labeling and organization of the menu align with her comprehensive information processing style and process-oriented learning style, making it easy for her to take this action confidently.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The dropdown menu under "Attending" clearly lists "Accommodation" as an option. Given Abi's motivation to find out where people are staying, it is logical for her to click on "Accommodation" to get the relevant information. The labeling is clear and directly related to her subgoal, making it easy for her to know what to do at this step. This aligns with her comprehensive information processing style, as she would recognize that this option is likely to provide the details she needs.</t>
         </is>
       </c>
     </row>
@@ -586,35 +586,35 @@
         <is>
           <t>Answer: YES
 Facets: Information Processing Style, Motivations
-Why: After clicking on "Accommodation," Abi is directed to a page that provides detailed information about the conference hotel, including its name, location, amenities, and reasons to stay there. This comprehensive information aligns with Abi's information processing style, as it allows her to gather all the necessary details to make an informed decision about where to stay. The page clearly indicates that she is making progress toward her goal of finding out where people are staying, and it provides all the relevant information she needs.</t>
+Why: After clicking on "Accommodation," Abi is directed to a page that provides detailed information about the conference hotel, including its name, location, amenities, and reasons to stay there. This page also includes information on how to register for the hotel and contact details. Given Abi's comprehensive information processing style, this page provides her with all the necessary details to understand where people are staying and make informed decisions about her own accommodation. The clear and detailed information aligns with her motivations and helps her feel confident that she is making progress toward her goal.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Accommodation," Abi lands on a page that provides detailed information about the conference hotel, including its amenities, location, and the benefits of staying there. The page also includes contact information for hotel reservations and options for sharing a room with another attendee. This comprehensive information aligns with Abi's motivation to find out where people are staying and her information processing style, which involves gathering all relevant details. The clear and detailed content on this page will help Abi feel confident that she is making progress toward her goal and has the information she needs to make her travel arrangements.</t>
+Why: After clicking on "Accommodation," Abi lands on a page that provides detailed information about the conference hotel, including its amenities, location, and the benefits of staying there. This aligns with her motivation to find out where people are staying and helps her make informed travel arrangements. The page is well-organized and provides comprehensive information, which suits Abi's information processing style. She will know she is making progress toward her goal and has access to all the necessary details.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Accommodation," Abi lands on a page that provides detailed information about the conference hotel, including its name, location, amenities, and reasons to stay there. This aligns with her motivation to find out where people are staying and her comprehensive information processing style. The page also includes contact information for hotel reservations and a link to ConferenceShare for room-sharing options, ensuring that Abi has all the necessary details to make informed travel arrangements.</t>
+Why: After clicking on "Accommodation," Abi is directed to a page that provides detailed information about the conference hotel, including its name, location, amenities, and the benefits of staying there. This aligns with her motivation to find out where people are staying and make informed travel arrangements. The page is well-organized and provides comprehensive information, which suits Abi's information processing style. She will know that she did the right thing and is making progress toward her goal, as the page gives her all the necessary details about accommodation options.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: Information Processing Style, Motivations
-Why: After clicking on "Accommodation," Abi lands on a page that provides detailed information about the conference hotel, including its name, location, amenities, and the benefits of staying there. This aligns with Abi's comprehensive information processing style, as the page offers a thorough overview of the accommodation options. Additionally, the information is relevant to her goal of knowing where people are staying, thus confirming that she is making progress toward her goal. The page is well-structured and provides all the necessary details, making it easy for Abi to understand and use the information.</t>
+Why: After clicking on "Accommodation," Abi is directed to a page that provides detailed information about the conference hotel, including its name, location, amenities, and the benefits of staying there. This page also includes information on how to register for a room and contact details for further inquiries. This comprehensive information aligns with Abi's information processing style, as it provides all the necessary details she needs to make an informed decision about where to stay. Additionally, this progress toward her goal of making travel arrangements is clear, as the page directly addresses her subgoal of finding out where people are staying.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: After clicking on "Accommodation," Abi lands on a page that provides detailed information about the conference hotel, including its name, location, amenities, and reasons to stay there. This comprehensive information aligns with her information processing style, as it allows her to gather all the necessary details in one place. The clear and organized presentation of information also supports her process-oriented learning style, making it easy for her to understand that she is making progress toward her goal and has the information she needs.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Accommodation," Abi lands on a page that provides detailed information about the conference hotel, including its name, location, amenities, and the benefits of staying there. This page also includes information on how to register for a room and contact details for further inquiries. This aligns with Abi's motivation to find out where people are staying and her comprehensive information processing style, as the page provides all the necessary details she needs to make an informed decision about her accommodation. Therefore, Abi will know that she did the right thing and is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -622,36 +622,36 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
+Facets: Information Processing Style, Motivations
+Why: The page is well-structured and provides a clear overview of the accommodation details at the top. Given Abi's comprehensive information processing style, she would naturally scroll down to gather more information. The page layout and content are straightforward, making it easy for her to understand that scrolling will likely reveal additional relevant details about the accommodation and related logistics. This aligns with her motivation to gather all necessary information for her travel arrangements.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page is well-organized and provides a clear overview of the accommodation details. Abi, with her comprehensive information processing style, will naturally scroll down to gather all the information available. The layout and content are straightforward, making it easy for her to know that scrolling will likely reveal more details about the accommodation options and related information. This aligns with her need to gather complete information for her travel arrangements.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page is well-organized and provides a clear overview of the accommodation details. Scrolling down is a natural action for Abi to take to ensure she has seen all the information available on the page. Given her comprehensive information processing style, she would be inclined to scroll to gather all relevant details. The page layout and content are straightforward, making it easy for her to know that scrolling is the next step to ensure she has all the information she needs.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Answer: YES
 Facets: Information Processing Style
-Why: The page provides a clear and detailed overview of the accommodation options, including the hotel name, location, and amenities. Scrolling down is a natural action for Abi to take to gather more information, which aligns with her comprehensive information processing style. The page is well-structured and provides relevant details, making it easy for Abi to know what to do next and continue gathering the information she needs.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+Why: The page already provides a significant amount of information about the accommodation, including the hotel name, location, amenities, and registration details. However, scrolling is a natural action to ensure that all relevant information is visible, especially for someone with a comprehensive information processing style like Abi. The layout of the page suggests that there might be more information available below the visible section, and scrolling down is a common and intuitive action to take in this context.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page provides a clear and detailed overview of the accommodation options, including the hotel name, amenities, and benefits of staying at the conference hotel. Abi, with her comprehensive information processing style, will naturally scroll down to ensure she gathers all relevant details. The layout and content of the page are straightforward and informative, making it easy for her to know that scrolling will likely reveal additional information she may need. This aligns with her approach to thoroughly understanding all aspects of her travel arrangements.</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page is well-organized and provides a clear overview of the accommodation details. Abi, with her comprehensive information processing style, will naturally scroll down to ensure she has all the necessary information. The content is structured in a way that encourages further exploration, and the presence of detailed sections about hotel registration, reasons to stay at the conference hotel, and contact information will guide her to scroll down for more details.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: Information Processing Style
-Why: The page is well-organized and provides a clear overview of the accommodation details. Abi, with her comprehensive information processing style, would naturally scroll down to ensure she has gathered all relevant information. The page layout and content are conducive to scrolling, and it is a common action to take when seeking more information. Therefore, Abi will know to scroll down to continue reading and gather all the necessary details about the accommodation.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The page is well-organized and provides a clear overview of the accommodation details. Abi can see that there is more information available below the fold, which aligns with her comprehensive information processing style. Scrolling down to gather more details is a natural action for her to take, and the page layout supports this by indicating that additional relevant information is available. This also fits her process-oriented learning style, as she can systematically review all the information presented.</t>
+Why: The page is well-structured and provides a clear overview of the accommodation details at the top. Given Abi's comprehensive information processing style, she is likely to scroll down to ensure she has all the relevant information. The page layout and content suggest that more details might be available further down, which aligns with her tendency to gather complete information before making decisions. Therefore, Abi will know to scroll down and will find the page good enough to take this action.</t>
         </is>
       </c>
     </row>
@@ -660,35 +660,35 @@
         <is>
           <t>Answer: YES
 Facets: Information Processing Style, Motivations
-Why: After scrolling, Abi will find detailed information about the accommodation, including the hotel name, location, amenities, and reasons to stay there. This comprehensive information aligns with her information processing style, as it allows her to gather all the necessary details to make an informed decision. The page provides all the relevant information she needs, confirming that she is making progress toward her goal of finding out where people are staying.</t>
+Why: After scrolling, Abi will find detailed information about the conference hotel, including its amenities, location, and reasons to stay there. The page also provides specific instructions for hotel registration and contact information. This comprehensive information aligns with Abi's information processing style and motivations, ensuring she knows she is making progress toward her goal of finding out where people are staying. The clear and detailed content will help her feel confident that she has all the necessary information to make her travel arrangements.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After scrolling, Abi will find detailed information about the conference hotel, including its amenities, location, and the benefits of staying there. The page also provides contact information for hotel reservations and options for sharing a room with another attendee. This comprehensive information aligns with Abi's motivation to find out where people are staying and her information processing style, which involves gathering all relevant details. The clear and detailed content on this page will help Abi feel confident that she is making progress toward her goal and has the information she needs to make her travel arrangements.</t>
+Why: After scrolling, Abi will find detailed information about the conference hotel, including its amenities, location, and the benefits of staying there. This information is comprehensive and directly relevant to her subgoal of knowing where people are staying. The page provides all the necessary details in a clear and organized manner, allowing Abi to feel confident that she is making progress toward her goal and has obtained the information she needs for her travel arrangements.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After scrolling, Abi will find detailed information about the conference hotel, including its amenities, reasons to stay there, and contact details for reservations. This comprehensive information aligns with her motivation to know where people are staying and her information processing style, which involves gathering all relevant details. The page provides all the necessary information in a clear and organized manner, ensuring that Abi knows she is making progress toward her goal and has all the details she needs to make her travel arrangements.</t>
+Why: After scrolling, Abi will find detailed information about the conference hotel, including its name, location, amenities, and the benefits of staying there. This comprehensive information aligns with her motivation to find out where people are staying and make informed travel arrangements. The page provides all the necessary details in a clear and organized manner, which suits Abi's information processing style. She will know that she did the right thing and is making progress toward her goal, as the page gives her all the information she needs about accommodation options.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: Information Processing Style, Motivations
-Why: After scrolling, Abi will find detailed information about the conference hotel, including its name, location, amenities, and the benefits of staying there. This comprehensive information aligns with Abi's information processing style, ensuring she has all the details she needs. The page is well-structured and provides clear, relevant information, confirming to Abi that she is making progress toward her goal of knowing where people are staying. The content is sufficient for her to make informed travel arrangements.</t>
+Why: The page already provides comprehensive information about the accommodation, including the hotel name, location, amenities, and registration details. Scrolling down allows Abi to ensure she has seen all the available information. The content on the page is well-organized and directly relevant to her subgoal of finding out where people are staying. By scrolling, Abi can confirm that she has accessed all the necessary details, which aligns with her comprehensive information processing style and her motivation to make informed travel arrangements. This action will help her know she is making progress toward her goal.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: After scrolling, Abi will find detailed information about the conference hotel, including its amenities, location, and reasons to stay there. This comprehensive information aligns with her information processing style, as it allows her to gather all the necessary details in one place. The clear and organized presentation of information also supports her process-oriented learning style, making it easy for her to understand that she is making progress toward her goal and has the information she needs.</t>
+Facets: 2. Information Processing Style
+Why: The page provides comprehensive information about the accommodation, including the hotel name, location, amenities, and benefits of staying there. It also includes details on how to register for a room and contact information for further inquiries. By scrolling, Abi can see all the relevant information she needs to know where people are staying and make her travel arrangements. This aligns with her comprehensive information processing style, ensuring she knows she did the right thing and is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -697,35 +697,35 @@
         <is>
           <t>Answer: YES
 Facets: Motivations, Information Processing Style
-Why: Deciding how many days to stay at the conference is a crucial part of making travel arrangements. Abi would need to know the duration of her stay to book accommodation and plan her travel. This aligns with her motivation to accomplish her tasks effectively and her comprehensive information processing style, as she would consider all necessary details to form a complete understanding of her travel plans.</t>
+Why: Deciding how many days to stay at the conference is a crucial part of making travel arrangements. Abi would need to know the duration of the conference to book her accommodation and plan her travel accordingly. Given her comprehensive information processing style, she would consider this a necessary step to gather all relevant details for her trip. This aligns with her motivation to ensure she has all the information needed to make informed decisions about her attendance.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Deciding how many days to stay at the conference is a crucial part of making travel arrangements. Abi is motivated to attend the conference and will need to determine the duration of her stay to book accommodation and plan her travel. Her comprehensive information processing style means she will consider all relevant details, including the conference schedule and any additional events, to decide the optimal number of days to stay. This step is essential for her to achieve her overall goal of attending the conference and making appropriate travel arrangements.</t>
+Why: Deciding how many days to stay at the conference is a crucial part of making travel arrangements. Abi will need to know the duration of her stay to book accommodation and plan her travel. This step aligns with her motivation to attend the conference and gather all necessary information for her trip. Additionally, her comprehensive information processing style means she will consider all relevant details, including the length of her stay, to ensure she is fully prepared.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to attend the conference and make comprehensive travel arrangements, which includes determining how many days to stay. This is a crucial part of her planning process to ensure she can attend all relevant sessions and events. Her comprehensive information processing style means she would consider the duration of her stay as an essential step in her overall travel planning. This subgoal aligns with her need to gather all necessary details to make informed decisions about her trip.</t>
+Why: Abi is making travel arrangements to attend the conference, and knowing how many days to stay is a crucial part of planning her trip. This information will help her book accommodation and make other necessary arrangements. Given her comprehensive information processing style, she would consider the duration of her stay as an essential step toward achieving her overall goal of attending the conference. Therefore, she would naturally think of determining the number of days to stay as part of her planning process.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: Motivations, Information Processing Style
-Why: Deciding how many days to stay at the conference is a crucial part of making travel arrangements. Abi's motivation to attend the conference and her comprehensive information processing style would lead her to consider the duration of her stay as an essential step. This decision impacts her accommodation booking, travel plans, and overall schedule, making it a necessary subgoal in achieving her overall use case.</t>
+Why: Deciding how many days to stay at the conference is a crucial part of making travel arrangements. Abi needs to know the duration of her stay to book accommodation and plan her travel accordingly. This aligns with her motivation to make informed travel arrangements and her comprehensive information processing style, as she would consider all relevant details, including the conference schedule and her own availability, to determine the length of her stay.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: Deciding how many days to stay at the conference is a crucial part of making travel arrangements. Abi would need to know the duration of her stay to book accommodation and plan her travel effectively. This aligns with her motivation to accomplish her tasks efficiently and her comprehensive information processing style, as she would consider all necessary details to form a complete understanding of her travel plans.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Deciding how many days to stay at the conference is a crucial part of making travel arrangements. Abi would need to know the duration of the conference to book her accommodation and plan her travel accordingly. This step is essential for her to ensure she attends all relevant sessions and events. Given her comprehensive information processing style, Abi would consider this a necessary step to gather all the details required for her trip.</t>
         </is>
       </c>
     </row>
@@ -734,72 +734,72 @@
         <is>
           <t>Answer: YES
 Facets: Information Processing Style, Motivations
-Why: The "Program" option is clearly visible in the navigation menu at the top of the page. Abi, who is looking to determine how many days to stay at the conference, would logically consider checking the program to see the schedule of events. This aligns with her motivation to gather necessary information for her travel plans and her comprehensive information processing style, as she would look for detailed information about the conference schedule to make an informed decision.</t>
+Why: The "Program" option is clearly visible in the navigation menu at the top of the page. Given Abi's comprehensive information processing style, she would recognize that the program section is likely to contain details about the conference schedule, which will help her determine how many days to stay. The page layout and navigation are straightforward, making it easy for her to understand that clicking on "Program" is the logical next step to gather the necessary information. This aligns with her motivation to plan her travel arrangements effectively.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" option is clearly visible in the navigation menu at the top of the page. Abi, who is motivated to determine how many days to stay at the conference, will recognize that the conference program will provide the necessary details about the schedule and events. Her comprehensive information processing style will lead her to explore the "Program" section to gather all relevant information about the conference's duration and activities. The page layout and labeling provide clear guidance, making it easy for her to know what to do at this step.</t>
+Why: The "Program" option is clearly visible in the navigation menu at the top of the page. Abi, who is motivated to determine how many days to stay at the conference, will likely recognize that the program will provide information about the conference schedule. This aligns with her comprehensive information processing style, as she will understand that reviewing the program is a necessary step to gather all relevant details about the conference duration and events. The page layout and labeling are straightforward, making it easy for Abi to know what to do at this step.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" option is clearly visible in the main navigation menu. Abi, who is motivated to determine how many days to stay at the conference, will recognize that the program section will provide details about the schedule of events and sessions. This aligns with her comprehensive information processing style, as she will understand that reviewing the program is a necessary step to plan the duration of her stay effectively. The page layout and navigation make it clear and straightforward for her to take this action.</t>
+Why: The "Program" option is clearly visible in the navigation menu at the top of the page. Abi is motivated to find out how many days to stay at the conference, and the program schedule is a logical place to find this information. Given her comprehensive information processing style, she would recognize that clicking on "Program" is the appropriate next step to gather details about the conference schedule, which will help her determine the duration of her stay. The page layout and clear labeling make it easy for her to know what to do at this step.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: Information Processing Style, Motivations
-Why: The "Program" section is a logical place for Abi to find information about the conference schedule, which will help her determine how many days to stay. Given her motivation to attend the conference and her comprehensive information processing style, Abi would recognize that clicking on "Program" is a necessary step to gather detailed information about the conference events and sessions. The page layout and the presence of the "Program" option make it clear and straightforward for her to take this action.</t>
+Why: The "Program" section is clearly visible in the navigation menu at the top of the page. It is reasonable for Abi to infer that the conference schedule, which will help her determine how many days to stay, can be found under this section. This aligns with her comprehensive information processing style, as she would look for specific sections that could provide the detailed information she needs. Additionally, her motivation to make informed travel arrangements supports her decision to click on the "Program" section.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The "Program" option is clearly visible in the navigation menu at the top of the page. Abi can reasonably infer that clicking on "Program" will provide her with the conference schedule, which is essential for determining how many days to stay. This aligns with her comprehensive information processing style, as she would seek out detailed information to make an informed decision. The clear labeling and organization of the menu also support her process-oriented learning style, making it straightforward for her to take this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Program" option is clearly visible in the navigation menu at the top of the page. Given Abi's motivation to determine how many days to stay at the conference, it is logical for her to click on "Program" to find the schedule and duration of the conference. The clear labeling and placement of the "Program" option align with her comprehensive information processing style, making it easy for her to know what to do at this step. The page is good enough for Abi to take this action as it provides a straightforward path to the information she needs.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: After clicking on "Program," Abi is presented with a dropdown menu that includes options such as "Complete Program," "Week Overview," and "Filter by Day." These options are directly related to her goal of determining how many days to stay at the conference. The clear and relevant information helps Abi know she is making progress toward her goal and provides her with the necessary details to continue her travel arrangements. This aligns with her motivation to gather necessary information and her comprehensive information processing style.</t>
+          <t>Answer: NO
+Facets: Computer Self-Efficacy, Information Processing Style
+Why: After clicking on "Program," Abi is presented with a dropdown menu containing multiple options such as "Complete Program," "Week Overview," "Industry Program," and more. While these options are relevant, the page does not immediately provide the comprehensive information Abi needs to determine how many days to stay at the conference. Given her low computer self-efficacy, she might feel uncertain about which specific option to choose next. Additionally, the dropdown menu requires further clicks and exploration, which might be overwhelming for her. Therefore, she might not feel confident that she is making progress toward her goal and may not get all the information she needs directly from this page.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Program," Abi will see a dropdown menu with several relevant options, including "Complete Program," "Week Overview," and "Filter by Day." These options provide clear pathways to detailed information about the conference schedule. Abi, who is motivated to determine how many days to stay at the conference, will recognize that exploring these options will help her gather the necessary details. The comprehensive and organized presentation of the program options aligns with her information processing style, allowing her to feel confident that she is making progress toward her goal and will get all the information she needs.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on "Program," Abi is presented with a dropdown menu with multiple options, such as "Complete Program," "Week Overview," "Industry Program," and more. While these options are relevant, it is not immediately clear which one will provide the specific information she needs to determine how many days to stay at the conference. Abi's comprehensive information processing style means she needs clear and direct information to feel confident she is making progress. Additionally, her low computer self-efficacy might make her hesitant to explore multiple options in the dropdown menu without clear guidance, leading to uncertainty about whether she is on the right track.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Program," Abi will see a dropdown menu with various options related to the conference schedule, such as "Complete Program," "Week Overview," and "Filter by Day." These options clearly indicate that she is on the right track to finding detailed information about the conference schedule. This aligns with her motivation to determine how many days to stay and her comprehensive information processing style, as she can explore these options to gather all necessary details about the conference events and sessions. The clear and organized presentation of options reassures her that she is making progress toward her goal.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on "Program," Abi is presented with a dropdown menu containing multiple options. While these options are related to the conference schedule, it is not immediately clear which one will provide the specific information she needs to determine how many days to stay. Abi's comprehensive information processing style means she prefers clear and direct paths to information, and this dropdown menu might be overwhelming or confusing. Additionally, her low computer self-efficacy might make her hesitant to explore multiple options in the dropdown, fearing she might not find the right information or might get lost. Therefore, she might not feel confident that she is making progress toward her goal.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style, Attitude Towards Risk
-Why: After clicking on "Program," Abi is presented with a dropdown menu with multiple options related to the conference schedule. While these options are relevant, it may not be immediately clear to Abi which specific option will provide the comprehensive information she needs to determine how many days to stay. Abi's low computer self-efficacy and risk-averse nature might make her hesitant to click on an option without being certain it will provide the necessary details. Additionally, her comprehensive information processing style means she would prefer more explicit guidance to ensure she is making progress toward her goal. The dropdown menu might not provide enough clarity for her to feel confident she is on the right track.</t>
+          <t>Answer: YES
+Facets: Information Processing Style, Motivations
+Why: After clicking on "Program," Abi is presented with a dropdown menu that includes options such as "Complete Program," "Week Overview," and "Filter by Day." These options are directly related to her subgoal of determining how many days to stay at the conference. The dropdown menu provides a clear and organized path to the information she needs, which aligns with her comprehensive information processing style. Additionally, her motivation to make informed travel arrangements supports her decision to explore these options. This action will help her know she is making progress toward her goal and will likely provide all the necessary details to determine the duration of her stay.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: After clicking on "Program," Abi is presented with a dropdown menu that includes various options such as "Complete Program," "Week Overview," and "Filter by Day." These options provide a clear path for her to find the detailed schedule of the conference, which is essential for determining how many days to stay. The organized presentation of options aligns with her comprehensive information processing style and process-oriented learning style, making it easy for her to understand that she is making progress toward her goal and has access to the information she needs.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on "Program," Abi is presented with a dropdown menu with multiple options, such as "Complete Program," "Week Overview," "Industry Program," etc. While these options are related to the conference schedule, it is not immediately clear which one will provide the specific information she needs about the duration of the conference. Abi's comprehensive information processing style means she would prefer clear and direct information. Additionally, her low computer self-efficacy might make her hesitant to explore multiple options in the dropdown menu without clear guidance, potentially causing confusion and making her unsure if she is making progress toward her goal. Therefore, she might not feel confident that she did the right thing and is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -808,35 +808,35 @@
         <is>
           <t>Answer: YES
 Facets: Information Processing Style, Motivations
-Why: The "Week Overview" option is clearly listed in the dropdown menu under "Program." Abi, who is trying to determine how many days to stay at the conference, would logically consider clicking on "Week Overview" to get a summary of the events throughout the week. This aligns with her motivation to gather necessary information for her travel plans and her comprehensive information processing style, as she would look for detailed information about the conference schedule to make an informed decision.</t>
+Why: The "Week Overview" option in the dropdown menu is clearly labeled and logically suggests that it will provide a summary of the conference schedule for the entire week. Given Abi's comprehensive information processing style, she would recognize that this option is relevant to her goal of determining how many days to stay at the conference. The page layout and navigation are straightforward, making it easy for her to understand that clicking on "Week Overview" is the logical next step to gather the necessary information. This aligns with her motivation to plan her travel arrangements effectively.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" option is clearly listed in the dropdown menu under "Program." Abi, who is motivated to determine how many days to stay at the conference, will recognize that clicking on "Week Overview" will provide a summary of the conference schedule. This aligns with her comprehensive information processing style, as she will systematically explore relevant sections to gather all necessary details. The page layout and labeling provide clear guidance, making it easy for her to know what to do at this step.</t>
+Why: The "Week Overview" option in the dropdown menu under "Program" is clearly labeled and suggests that it will provide a summary of the conference schedule for the entire week. Abi, who is motivated to determine how many days to stay at the conference, will likely recognize that this option will give her the necessary information. The page layout and labeling are straightforward, making it easy for Abi to know what to do at this step. This aligns with her comprehensive information processing style, as she will understand that reviewing the week overview is a necessary step to gather all relevant details about the conference duration and events.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" option is clearly listed in the dropdown menu under "Program." Abi, who is motivated to determine how many days to stay at the conference, will recognize that clicking on "Week Overview" will provide her with a summary of the events and sessions throughout the week. This aligns with her comprehensive information processing style, as she will understand that reviewing the week overview is a necessary step to plan the duration of her stay effectively. The page layout and navigation make it clear and straightforward for her to take this action.</t>
+Why: The "Week Overview" option in the dropdown menu under "Program" is clearly labeled and logically suggests that it will provide a summary of the conference schedule for the entire week. Abi is motivated to find out how many days to stay at the conference, and this option directly aligns with her goal. Given her comprehensive information processing style, she would recognize that clicking on "Week Overview" is the appropriate next step to gather details about the conference schedule, which will help her determine the duration of her stay. The page layout and clear labeling make it easy for her to know what to do at this step.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: Information Processing Style, Motivations
-Why: The "Week Overview" option in the dropdown menu under "Program" is clearly labeled and suggests that it will provide a summary of the conference schedule for the entire week. Given Abi's motivation to determine how many days to stay at the conference and her comprehensive information processing style, she would recognize that clicking on "Week Overview" is a logical step to gather the necessary details. The page layout and the presence of this specific option make it clear and straightforward for her to take this action.</t>
+Why: The "Week Overview" option in the dropdown menu under "Program" is clearly labeled and suggests that it will provide a summary of the conference schedule for the entire week. This is directly relevant to Abi's subgoal of determining how many days to stay at the conference. The label is straightforward and indicates that clicking on it will likely provide the information she needs. This aligns with her comprehensive information processing style, as she would look for specific sections that could provide detailed information. Additionally, her motivation to make informed travel arrangements supports her decision to click on "Week Overview."</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The "Week Overview" option is clearly listed in the dropdown menu under "Program." Abi can reasonably infer that clicking on "Week Overview" will provide her with a summary of the conference schedule for the entire week, which is essential for determining how many days to stay. This aligns with her comprehensive information processing style, as she would seek out detailed information to make an informed decision. The clear labeling and organization of the menu also support her process-oriented learning style, making it straightforward for her to take this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" option in the dropdown menu under "Program" is clearly labeled and suggests that it will provide a summary of the conference schedule for the entire week. Given Abi's motivation to determine how many days to stay at the conference, it is logical for her to click on "Week Overview" to get an understanding of the conference duration. The clear labeling and placement of the "Week Overview" option align with her comprehensive information processing style, making it easy for her to know what to do at this step. The page is good enough for Abi to take this action as it provides a straightforward path to the information she needs.</t>
         </is>
       </c>
     </row>
@@ -845,35 +845,35 @@
         <is>
           <t>Answer: YES
 Facets: Information Processing Style, Motivations
-Why: After clicking on "Week Overview," Abi is presented with a detailed schedule of the conference events for each day. This comprehensive overview allows her to see the entire week's activities at a glance, helping her determine how many days she needs to stay at the conference. The clear and organized presentation of information confirms that she is making progress toward her goal and provides all the necessary details she needs to make an informed decision about her stay. This aligns with her motivation to gather necessary information and her comprehensive information processing style.</t>
+Why: After clicking on "Week Overview," Abi is presented with a detailed schedule of the conference week, including co-located events, workshops, mentoring events, and the main conference sessions. The visual layout clearly shows the dates and types of events happening each day, which will help Abi determine how many days to stay at the conference. This comprehensive information aligns with her information processing style and motivations, ensuring she knows she is making progress toward her goal and has all the necessary details to plan her stay effectively.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Week Overview," Abi lands on a page that provides a detailed schedule of the conference week, including co-located events, workshops, and the main conference sessions. This comprehensive overview allows Abi to see the entire conference timeline at a glance, helping her determine how many days she needs to stay. The clear and organized presentation of the schedule aligns with her motivation to plan her stay and her comprehensive information processing style. This will help her feel confident that she is making progress toward her goal and has the information she needs to make informed travel arrangements.</t>
+Why: After clicking on "Week Overview," Abi lands on a page that provides a detailed schedule of the conference events for each day. This information is comprehensive and directly relevant to her subgoal of determining how many days to stay at the conference. The page is well-organized and presents the schedule in a clear and easy-to-understand format, allowing Abi to feel confident that she is making progress toward her goal and has obtained the information she needs to plan her stay. This aligns with her motivation to gather all necessary details for her travel arrangements and her comprehensive information processing style.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Week Overview," Abi lands on a page that provides a detailed schedule of the conference events, workshops, and sessions for each day. This comprehensive overview allows her to see the entire week's activities at a glance, helping her determine how many days she needs to stay to attend the sessions relevant to her. The clear and organized presentation of the schedule reassures her that she is making progress toward her goal and provides all the necessary information to plan her stay effectively.</t>
+Why: After clicking on "Week Overview," Abi is presented with a clear and detailed schedule of the conference events for the entire week. This page provides a comprehensive overview of the conference activities, including the dates and types of sessions, which directly helps her determine how many days to stay at the conference. The information is well-organized and easy to understand, aligning with her comprehensive information processing style. Abi will know that she did the right thing and is making progress toward her goal, as the page gives her all the necessary details to plan the duration of her stay.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: Information Processing Style, Motivations
-Why: After clicking on "Week Overview," Abi is presented with a detailed schedule of the conference events for the entire week. This comprehensive overview aligns with Abi's information processing style, providing her with all the necessary details to determine how many days to stay at the conference. The clear layout and color-coded schedule make it easy for her to understand the timing and duration of various events, confirming that she is making progress toward her goal. The page provides all the information she needs to make an informed decision about her stay.</t>
+Why: After clicking on "Week Overview," Abi is presented with a detailed schedule of the conference week, including co-located events, workshops, mentoring events, and the main conference sessions. The schedule is organized by day, making it easy for Abi to see the duration and timing of various events. This comprehensive overview aligns with her information processing style, as it provides all the necessary details to determine how many days she should stay at the conference. Additionally, the clear and organized presentation of the schedule helps Abi know that she is making progress toward her goal of planning her stay.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: After clicking on "Week Overview," Abi is presented with a detailed schedule of the conference week, including co-located events, workshops, and main conference sessions. This comprehensive overview allows her to see the entire week's activities at a glance, helping her determine how many days to stay. The clear and organized presentation of the schedule aligns with her comprehensive information processing style and process-oriented learning style, making it easy for her to understand that she is making progress toward her goal and has the information she needs.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Week Overview," Abi lands on a page that provides a clear and detailed schedule of the conference events for each day. The visual layout of the week overview makes it easy to see the duration of the conference and the specific events happening each day. This aligns with Abi's motivation to determine how many days to stay at the conference and her comprehensive information processing style, as the page provides all the necessary details in an organized manner. Therefore, Abi will know that she did the right thing and is making progress toward her goal, and she will get all the information she needs.</t>
         </is>
       </c>
     </row>
@@ -881,36 +881,36 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>Answer: NO
+Facets: Computer Self-Efficacy, Information Processing Style
+Why: The "Week Overview" page already provides a comprehensive schedule of the conference, which should help Abi determine how many days to stay. Going back up the page to click on "Tracks" might not be an intuitive next step for her, especially given her low computer self-efficacy. She might feel uncertain about what additional information "Tracks" would provide that isn't already covered in the "Week Overview." Additionally, the page does not explicitly guide her to click on "Tracks" for more detailed information, which might make her hesitant to take this action. Therefore, she might not know that this is the right step to take and may not feel confident in making progress toward her goal.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "Week Overview" page already provides a comprehensive schedule of the conference events, which should help Abi determine how many days to stay at the conference. The need to go back up the page and click on "Tracks" is not immediately clear or necessary for achieving her subgoal. Abi's comprehensive information processing style means she would prefer to gather all relevant information from the current page before considering other options. Additionally, her low computer self-efficacy might make her hesitant to navigate away from a page that already seems to provide the needed information. This could lead to confusion and uncertainty about whether she is making progress toward her goal.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "Week Overview" page already provides a comprehensive schedule of the conference, which should help Abi determine how many days to stay. Going back up the page to click on "Tracks" might not be an obvious or necessary step for her. Abi's comprehensive information processing style means she prefers clear and direct paths to information, and the current page already offers a detailed overview. Additionally, her low computer self-efficacy might make her hesitant to navigate away from a page that already seems to provide the needed information. Therefore, she might not know that going back up the page to click on "Tracks" is the right action to take.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Answer: NO
 Facets: Computer Self-Efficacy, Attitude Toward Risk
-Why: While the "Tracks" option is visible in the navigation menu, Abi may not be confident in knowing that clicking on "Tracks" will provide additional information relevant to determining how many days to stay at the conference. The current page already provides a comprehensive week overview, and without explicit guidance or a clear indication that "Tracks" will offer further necessary details, Abi might be hesitant to take this action due to her low computer self-efficacy and risk-averse nature. She might prefer to stick with the information already presented rather than exploring potentially unfamiliar sections.</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: While the "Tracks" option is visible in the navigation menu, Abi may not immediately understand that clicking on "Tracks" will provide additional details relevant to determining how many days to stay at the conference. Given her low computer self-efficacy, she might be hesitant to click on an option without clear indication of what information it will provide. Additionally, Abi prefers process-oriented learning and may not feel confident in exploring unfamiliar sections without explicit guidance. The page does not provide enough context to assure her that clicking on "Tracks" is the right action to take.</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Tracks" option is clearly visible in the main navigation menu at the top of the page. Abi, who is motivated to determine how many days to stay at the conference, will recognize that clicking on "Tracks" will provide her with detailed information about the different tracks and sessions available. This aligns with her comprehensive information processing style, as she will understand that reviewing the tracks is a necessary step to plan the duration of her stay effectively. The page layout and navigation make it clear and straightforward for her to take this action.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style, Attitude Towards Risk
-Why: The "Week Overview" page already provides a comprehensive schedule of the conference events, which should be sufficient for Abi to determine how many days to stay. The need to go up the page and click on "Tracks" might not be immediately clear to Abi, especially given her low computer self-efficacy and risk-averse nature. She might be hesitant to navigate away from a page that already seems to provide the necessary information. Additionally, her comprehensive information processing style means she would prefer explicit guidance, and the current page does not indicate that additional relevant information can be found under "Tracks." Therefore, Abi might not know to take this action.</t>
+Why: The current page already provides a comprehensive week overview, which should help Abi determine how many days to stay at the conference. The need to go back up the page and click on "Tracks" is not immediately clear from the current context. Given Abi's low computer self-efficacy and risk-averse nature, she might be hesitant to navigate away from a page that already seems to provide the necessary information. Without a clear indication that clicking on "Tracks" will provide additional relevant information, Abi may not feel confident in taking this action.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Attitude Toward Risk
-Why: While the "Tracks" option is visible in the navigation menu, Abi may not be confident that clicking on it will provide additional information relevant to determining how many days to stay at the conference. The current page already provides a comprehensive week overview, and without clear indication that "Tracks" will offer more specific details, Abi might be hesitant to navigate away from the current page. Her low computer self-efficacy and risk-averse attitude toward using unfamiliar features may deter her from taking this action without more explicit guidance.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "Week Overview" page already provides a comprehensive schedule of the conference, including the duration and specific events for each day. Abi, with her comprehensive information processing style, would likely find all the necessary information about how many days to stay at the conference on this page. Clicking on "Tracks" might not be an obvious next step for her, as it is not clear that it would provide additional relevant information about the overall duration of the conference. Additionally, her low computer self-efficacy might make her hesitant to navigate away from a page that already seems to provide the needed information. Therefore, she might not know to go up the page and click on "Tracks" at this step.</t>
         </is>
       </c>
     </row>
@@ -918,36 +918,36 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>Answer: NO
+Facets: Computer Self-Efficacy, Information Processing Style
+Why: After clicking on "Tracks," Abi is presented with a dropdown menu containing numerous options related to different tracks and co-hosted conferences. While this information is relevant, it is not immediately clear how it will help her determine how many days to stay at the conference. The dropdown menu requires further clicks and exploration, which might be overwhelming for Abi given her low computer self-efficacy. Additionally, the page does not provide a direct summary or overview that would help her quickly understand the duration of the conference. Therefore, she might not feel confident that she is making progress toward her goal and may not get all the information she needs directly from this page.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on "Tracks," Abi is presented with a dropdown menu containing numerous options related to different tracks and co-hosted conferences. This menu does not provide immediate clarity on how it will help her determine how many days to stay at the conference. Abi's comprehensive information processing style means she needs clear and direct information to feel confident she is making progress. Additionally, her low computer self-efficacy might make her hesitant to explore multiple options in the dropdown menu without clear guidance, leading to uncertainty about whether she is on the right track and making progress toward her goal. The page does not provide the specific information she needs in an easily accessible manner.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on "Tracks," Abi is presented with another dropdown menu containing multiple options. While these options are related to different tracks of the conference, it is not immediately clear which one will provide the specific information she needs to determine how many days to stay. Abi's comprehensive information processing style means she prefers clear and direct paths to information, and this dropdown menu might be overwhelming or confusing. Additionally, her low computer self-efficacy might make her hesitant to explore multiple options in the dropdown, fearing she might not find the right information or might get lost. Therefore, she might not feel confident that she is making progress toward her goal or that she has all the information she needs.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Answer: NO
 Facets: Information Processing Style, Computer Self-Efficacy
-Why: After clicking on "Tracks," Abi is presented with a dropdown menu listing various tracks and co-hosted conferences. However, this page does not provide a clear indication that she is making progress toward determining how many days to stay at the conference. The information is fragmented and requires further exploration, which may be overwhelming for Abi given her low computer self-efficacy. Additionally, the comprehensive information processing style Abi prefers is not supported here, as she would need to click on multiple links to gather the necessary details, making it difficult for her to feel confident that she is on the right path.</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on "Tracks," Abi lands on a page with a dropdown menu listing various tracks and co-hosted conferences. While this provides a comprehensive list of options, it may not immediately help Abi determine how many days to stay at the conference. The information is not organized in a way that directly answers her question about the duration of her stay. Given her comprehensive information processing style, Abi might feel overwhelmed by the numerous options and unsure about which track to explore for the specific information she needs. Additionally, her low computer self-efficacy might make her hesitant to navigate through multiple tracks without clear guidance, leading to uncertainty about whether she is making progress toward her goal.</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Tracks," Abi will see a dropdown menu with a comprehensive list of tracks and sessions available at the conference. This detailed list allows her to explore the specific tracks she is interested in and plan her stay accordingly. The clear and organized presentation of the tracks reassures her that she is making progress toward her goal and provides all the necessary information to determine how many days to stay at the conference. This aligns with her motivation to gather all relevant details and her comprehensive information processing style.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style, Attitude Towards Risk
-Why: After clicking on "Tracks," Abi is presented with a dropdown menu listing various tracks and co-hosted conferences. While this information is relevant, it may not be immediately clear to Abi how it helps her determine how many days to stay at the conference. Abi's low computer self-efficacy and risk-averse nature might make her hesitant to explore further without clear guidance. Additionally, her comprehensive information processing style means she would prefer more explicit instructions or a direct link to a detailed schedule. The dropdown menu might not provide enough clarity for her to feel confident she is making progress toward her goal.</t>
+Why: After clicking on "Tracks," Abi is presented with a dropdown menu listing various tracks and co-hosted conferences. While this provides additional information about the conference, it may not directly help her determine how many days to stay. The previous "Week Overview" page already provided a comprehensive schedule, which should have been sufficient for her to make this decision. The additional information in the "Tracks" dropdown may overwhelm Abi, given her low computer self-efficacy and preference for clear, direct information. This action does not clearly indicate progress toward her goal and may not provide the specific information she needs.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Information Processing Style, Computer Self-Efficacy
-Why: After clicking on "Tracks," Abi is presented with a dropdown menu listing various tracks and co-hosted conferences. While this provides additional information, it may not directly help her determine how many days to stay at the conference. The dropdown menu does not provide a clear indication that it will offer more specific details about the schedule or duration of each track. Given Abi's comprehensive information processing style, she may feel uncertain about whether this action is helping her make progress toward her goal. Additionally, her low computer self-efficacy may make her hesitant to explore further without clear guidance.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on "Tracks," Abi is presented with a dropdown menu listing various tracks and co-hosted conferences. While this information is relevant to the conference, it does not directly provide the overall duration of the conference or help Abi determine how many days to stay. The dropdown menu adds complexity and may overwhelm Abi, given her low computer self-efficacy. Additionally, her comprehensive information processing style means she would prefer clear and direct information about the conference duration, which this dropdown menu does not provide. Therefore, Abi might not feel confident that she did the right thing and is making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/aggregated_output/PATTAYA_aggregated.xlsx
+++ b/aggregated_output/PATTAYA_aggregated.xlsx
@@ -18,347 +18,347 @@
   <si>
     <t>Answer: YES
 Facets: 1. Motivations
-Why: Abi is attending the conference and would likely be motivated to know where other attendees are staying to make her travel arrangements more convenient and possibly to network. This aligns with her motivation to attend the conference and make necessary travel plans.</t>
+Why: Abi is making travel arrangements for the conference, and knowing where people are staying is a logical step in planning her trip. It aligns with her motivation to attend the conference and ensure she has suitable accommodations.</t>
+  </si>
+  <si>
+    <t>Answer: NO 
+Facets: 1.Motivations 
+Why: Abi just wants to make traveling arrangements. This does not include getting information about where other attendees are staying.</t>
   </si>
   <si>
     <t>Answer: YES
 Facets: 1. Motivations
-Why: Abi is motivated to attend the conference and would likely consider knowing where people are staying as part of her travel arrangements. This information could help her decide on accommodation options and enhance her conference experience.</t>
+Why: Abi is attending the conference and would likely want to know where other attendees are staying to make her travel arrangements more convenient and possibly to network. This aligns with her motivation to attend the conference and make necessary travel plans.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to attend the conference and would likely consider knowing where people are staying as part of her travel arrangements. The page provides links under "Attending," including "Accommodation," which aligns with her comprehensive information processing style. This suggests she would think of this as a step toward achieving her overall goal of attending the conference.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1.Motivations
+Why: Getting to know where people are staying might help Abi to get in touch with other attendees with similar interests, and it could help her plan her trip better. So, it is in line with Abi's motivation to accomplish her tasks.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Attending" section is clearly labeled and relevant to Abi's goal of making travel arrangements. It suggests information related to attendance, which likely includes accommodation details. This aligns with her motivation to find out where people are staying and fits her comprehensive information processing style.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking "Attending," Abi sees a dropdown menu with various options, but it doesn't directly provide information about where people are staying. She might not immediately know she is making progress toward her goal, as she needs to choose the correct option, like "Accommodation," to find the relevant information. This requires additional steps and decision-making, which might not be clear to her.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Accommodation" option is clearly labeled in the dropdown menu under "Attending," which directly relates to Abi's goal of finding out where people are staying. This aligns with her motivation and comprehensive information processing style, making it clear that clicking on "Accommodation" is the right step to take.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Accommodation," Abi lands on a page with detailed information about the conference hotel, including its name, location, and benefits of staying there. This directly addresses her goal of finding out where people are staying, confirming she made the right choice and is making progress. The comprehensive details align with her information processing style.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page contains detailed information about the accommodation, and scrolling is a natural action to view all the content. Abi's comprehensive information processing style means she is likely to scroll to ensure she sees all relevant details about where people are staying.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits. This confirms she is making progress toward her goal of knowing where people are staying. The comprehensive details provided align with her motivation and information processing style, ensuring she gets all the information she needs.</t>
   </si>
   <si>
     <t>Answer: YES
 Facets: 1. Motivations
-Why: Abi is making travel arrangements to attend ICSE 2019, and knowing where people are staying is a logical step in planning her trip. This information can help her decide on accommodations and logistics, aligning with her motivation to attend the conference.</t>
+Why: Deciding how many days to stay is a crucial part of making travel arrangements for the conference. Abi would naturally consider this as part of her planning process to ensure she attends the necessary sessions and events. This aligns with her motivation to effectively plan her trip.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Clicking on "Program" is a logical step for Abi to determine how many days to stay, as it likely contains the schedule of events and sessions. This aligns with her motivation to plan her trip effectively and her comprehensive information processing style. The page provides clear navigation to the program section.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Program," Abi sees a dropdown menu with options like "Complete Program" and specific dates. This indicates she is on the right track to finding the schedule and determining how many days to stay. The clear options align with her motivation and information processing style, helping her make progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" option is clearly labeled and suggests it will provide a summary of the conference schedule. This aligns with Abi's motivation to determine how many days to stay and fits her comprehensive information processing style, making it a logical step to take.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" page provides a clear schedule of events across the conference days. This helps Abi determine how many days to stay, confirming she made the right choice. The detailed overview aligns with her motivation and comprehensive information processing style, ensuring she gets all the information she needs.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page already provides a comprehensive overview of the conference schedule. Clicking on "Tracks" might not be an obvious next step for Abi, as she may not be confident it will provide additional relevant information. Without clear guidance or indication that "Tracks" will help her further, she might hesitate to take this action.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The dropdown menu under "Tracks" presents many options, but it doesn't directly indicate how it will help Abi determine how many days to stay. Without clear guidance or a direct link to her goal, she might not feel confident that she is making progress or getting the necessary information.</t>
+  </si>
+  <si>
+    <t>Answer: NO 
+Facets: 4. Computer Self-Efficacy
+Why: Abi struggles with unfamiliar technology and thus may not understand the label "attending". She needs more information like "click here to find where people are staying"</t>
+  </si>
+  <si>
+    <t>Answer: NO 
+Facets: 3. Attitude towards Risk
+Why: There is no information on the page about what will happen after clicking "attending". Abi is risk averse and therefore will not click unless she knows more about what will happen.</t>
+  </si>
+  <si>
+    <t>Answer: YES 
+Facets: 1.Motivations 2.Attitude towards Risk
+Why: The page answers the question "Where are people staying?" and provides a link to more information. Abi is motivated to find this information and will be willing to take the risk of clicking on the link since she knows what will happen.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1.Motivations 2. Attitude towards Risk
+Why: The page answers the question "Where are people staying?"</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: Abi is comprehensive so scrolling aligns with her facets of processing information in a batch of activities to gather information.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style 3.Computer Self-Efficacy
+Why: Abi tends to use a comprehensive information processing style when they need to get more information. Abi's style is "bursty"; first, they read a lot and then act on it in a batch of activities. Also, after scrolling, The page answers the question "Where are people staying?"</t>
+  </si>
+  <si>
+    <t>Answer: YES 
+Facets: 1.Motivations 2. Attitude towards Risk
+Why: Abi is motivated to make travel arrangements and this includes deciding how many days to stay at the conference. Abi has decided to attend the conference and is therefore willing to take the risk of making travel arrangements.</t>
+  </si>
+  <si>
+    <t>Answer: NO 
+Facets: 2. Information Processing Style 3.Computer Self-Efficacy
+Why: Abi is very unlikely to click on the “program” button and read through the whole program book. It is very complicated and hard to process the information</t>
+  </si>
+  <si>
+    <t>Answer: NO 
+Facets: 2. Information Processing Style 3.Computer Self-Efficacy
+Why: Abi is very unlikely to click on the “week overview” button and read through the whole program book. It is very complicated and hard to process the information</t>
+  </si>
+  <si>
+    <t>Answer: YES 
+Facets: 2. Information Processing Style 3.Computer Self-Efficacy
+Why: The page gives the information about overview of the conference, which provide the information about dates of the conference. Also, Abi is comfortable with comprehensive information processing techniques</t>
+  </si>
+  <si>
+    <t>Answer: YES 
+Facets: 2. Information Processing Style 3.Computer Self-Efficacy
+Why: Abi is very unlikely to go up the page and click on the “tracks” button and read through the whole program book. It is very complicated and hard to process the information. Also, Abi doesn't know the implication of going up the page on a website.</t>
+  </si>
+  <si>
+    <t>Answer: NO 
+Facets: 2. Information Processing Style 3.Computer Self-Efficacy
+Why: Abi is very unlikely to go up the page and click on the “tracks” button and read through the whole program book. It is very complicated and hard to process the information</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Attending" section is clearly labeled and likely contains relevant information about accommodations and where people are staying. This aligns with Abi's motivation to make travel arrangements and her comprehensive information processing style, as she would look for relevant sections to gather necessary details.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Attending," Abi sees a dropdown menu with options like "Accommodation," which directly relates to her goal of finding out where people are staying. This indicates she is making progress toward her goal and provides a clear path to the information she needs.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Accommodation" option is clearly listed under the "Attending" dropdown menu. This directly relates to Abi's goal of finding out where people are staying, making it intuitive for her to click on it. The page provides a straightforward path to the information she needs.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Accommodation," Abi lands on a page with detailed information about the conference hotel, including its location and amenities. This confirms she is making progress toward her goal of finding out where people are staying and provides the comprehensive information she needs.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page contains detailed information about the accommodation, and scrolling is a natural action to view more content. Abi's comprehensive information processing style means she will likely scroll to ensure she gathers all relevant details about where people are staying.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits of staying at the conference hotel. This confirms she is making progress toward her goal and provides the comprehensive information she needs.</t>
   </si>
   <si>
     <t>Answer: YES
 Facets: 1. Motivations
-Why: Abi is making travel arrangements to attend ICSE 2019, and knowing where people are staying is a logical step in planning her trip. This information can help her decide on accommodation and logistics, aligning with her motivation to attend the conference.</t>
+Why: Deciding how many days to stay is a crucial part of making travel arrangements for the conference. Abi would consider this step essential to ensure she attends all relevant sessions and events, aligning with her motivation to attend the conference effectively.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Program" section is likely to contain the schedule of events, which is essential for Abi to determine how many days to stay. This aligns with her motivation to plan her trip effectively and her comprehensive information processing style, as she would seek out detailed schedules to make informed decisions.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Program," Abi sees options like "Complete Program" and specific dates, which are crucial for determining how many days to stay. This confirms she is making progress toward her goal and provides the detailed schedule information she needs.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" option is clearly listed under the "Program" dropdown. It suggests a summary of the conference schedule, which is relevant for Abi to determine how many days to stay. This aligns with her motivation to plan effectively and her comprehensive approach to gathering information.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" page provides a clear schedule of events across the conference days. This helps Abi determine how many days to stay, confirming she is making progress toward her goal and providing the comprehensive information she needs.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 3. Attitude Towards Risk, 4. Computer Self-Efficacy
+Why: The "Tracks" option is not clearly related to determining how many days to stay. Without explicit information indicating that "Tracks" will provide additional relevant details, Abi might be hesitant to click due to her risk-averse nature and low confidence in unfamiliar tasks.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 3. Attitude Towards Risk, 4. Computer Self-Efficacy
+Why: The "Tracks" dropdown provides a list of options, but it doesn't clearly indicate how it will help Abi determine how many days to stay. Without explicit guidance or relevant information, Abi may not feel confident that she is making progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly lists "Attending" with relevant links, including "Accommodation," which aligns with Abi's goal of finding out where people are staying. The organization of the page supports her comprehensive information processing style, making it straightforward for her to know what to do at this step.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Attending," Abi sees a dropdown menu with options like "Accommodation," which directly relates to her goal of finding out where people are staying. This clear navigation confirms she is making progress toward her goal and provides the necessary information to proceed.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The dropdown menu under "Attending" clearly lists "Accommodation," which directly relates to Abi's goal of finding out where people are staying. The page is straightforward and provides the necessary information for her to take this action confidently.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Accommodation," Abi lands on a page with detailed information about the conference hotel, including its location, amenities, and registration details. This aligns with her goal of finding out where people are staying and provides comprehensive information, confirming she is making progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page contains detailed information about the accommodation, and scrolling is a natural action to view all the content. Abi's comprehensive information processing style means she will likely scroll to ensure she gathers all necessary details about where people are staying.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration, benefits of staying at the conference hotel, and the address. This confirms she is making progress toward her goal and provides all the information she needs about where people are staying.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Deciding how many days to stay is a crucial part of making travel arrangements for a conference. Abi is motivated to attend and would consider the conference schedule and her travel plans, aligning with her comprehensive information processing style. This step is essential for achieving her overall goal of attending the conference.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page is focused on accommodation details and doesn't provide direct guidance or links to the conference program. Abi might not feel confident about what to do next without explicit instructions or a clear path to find the program information, which is necessary to determine how many days to stay.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Program," Abi sees a dropdown menu with options like "Complete Program" and specific dates. This provides a clear path to understanding the conference schedule, helping her determine how many days to stay. This confirms she is making progress toward her goal and provides the necessary information.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The dropdown menu under "Program" includes "Week Overview," which is relevant for understanding the conference schedule. This option aligns with Abi's goal of determining how many days to stay, and the page provides a clear path to the information she needs.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" page provides a clear schedule of events and sessions throughout the conference week. This helps Abi determine how many days to stay, confirming she is making progress toward her goal and providing all the necessary information.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The "Week Overview" page already provides a comprehensive schedule, and there is no clear indication that clicking on "Tracks" would provide additional necessary information for determining how many days to stay. Abi might not feel confident about what to do next without explicit instructions or a clear path.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Clicking on "Tracks" leads to a dropdown with many options, but it doesn't directly provide information about the duration of the conference or help determine how many days to stay. Abi might not feel she is making progress toward her goal, as the information is not clearly aligned with her specific need.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 3. Attitude Towards Risk &amp; 6.None of the Above
+Why: ABI has a negative attitude towards risk and prefers to use familiar technologies. Clicking on "attending" without knowing where it would take her is something new, not in line with her attitude toward risk. ABI's tendency is to get all the information before clicking on anything, which is not available on the page.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations &amp; 2. Information Processing Style 
+Why: ABI's motivation is accomplishing the task. She has a comprehensive information processing style. Clicking on the "attending" button takes her to a new window where she can potentially get more information about accommodations, which will be helpful for her, so it is in line with her motivations and information processing style. So, she will click on the attending button.</t>
   </si>
   <si>
     <t>Answer: YES
 Facets: 1. Motivations
-Why: Abi is motivated to attend the conference and would likely consider knowing where people are staying as part of her travel arrangements. This information could help her decide on accommodations and logistics, aligning with her goal of attending the conference.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Attending" section is clearly labeled and relevant to Abi's goal of making travel arrangements. It suggests information related to attendance, which aligns with her motivation to find out where people are staying. The page layout is straightforward, making it easy for Abi to identify this as a logical step in her process.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Attending," Abi sees a dropdown menu with options like "Accommodation" and "Venue," which are directly related to her goal of finding out where people are staying. This indicates she is making progress toward her goal, and the options provide a clear path to the information she needs.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Accommodation" option is clearly listed under the "Attending" dropdown menu, which directly relates to Abi's goal of finding out where people are staying. The page provides a straightforward path for her to follow, making it easy for her to know what to do next.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Accommodation," Abi lands on a page with detailed information about the conference hotel, including its location, amenities, and registration details. This confirms she is making progress toward her goal of finding out where people are staying and provides the comprehensive information she needs.</t>
+Why: This action takes ABI closer to achieving her goal of finding out where people are staying at the conference.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style &amp; 6. None of the Above
+Why: "Accommodations" in the navigation bar is a clue that suggests this is information on the topic she needs. Because ABI's information processing style is to process information in a comprehensive manner and gather information before acting, she would likely click on this link</t>
   </si>
   <si>
     <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page contains detailed information about the accommodation, and scrolling is a natural action to view all the content. Abi's comprehensive information processing style aligns with scrolling to ensure she gathers all necessary details.</t>
+Why: ABI processes information comprehensively. So, scrolling the page up and down to get a complete picture of the page and its information aligns with her information processing style.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style &amp; 6. None of the Above
+Why: Though scrolling aligns with ABI's information processing style, there is no new information gained from scrolling further. So, she isn't progressing toward her goal.</t>
   </si>
   <si>
     <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits of staying at the conference hotel. This confirms she is making progress toward her goal and provides the comprehensive details she needs.</t>
+Why: Determining how many days to stay at the conference is a step toward achieving the overall use case of making travel arrangements. ABI's information processing style is comprehensive, so she would likely consider this as a step in her process of gathering information.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 3. Attitude Towards Risk &amp; 6. None of the Above
+Why: The text of the button "program" is not descriptive enough for her to understand that it will have useful info about the number of days of the conference. ABI's risk aversion trait leads her to avoid unfamiliar technologies/actions when she is uncertain about the outcome, so she won't click.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 5. Learning Style &amp; 6. None of the Above
+Why: ABI doesn't have information about how long the conference is. The webpage doesn't provide the duration of the conference. The page only shows the event happening over four days, which doesn't give her a clear idea of how many days she should stay at the conference. Also, Clicking on the conference program without understanding the page fully is not in line with ABI's process-oriented learning style.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 6. None of the Above
+Why: Clicking on "Week Overview" without understanding what it is about is not in line with ABI's comfort with familiar technologies and avoiding unfamiliar ones.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style &amp; 6. None of the Above
+Why: The week overview page shows the schedule for all the days of the conference, which gives ABI the information she needs to determine how many days to stay at the conference. This aligns with ABI's comprehensive information processing style.</t>
   </si>
   <si>
     <t>Answer: YES
 Facets: 1. Motivations
-Why: Abi is making travel arrangements for the conference, so determining how many days to stay is a logical step in planning her trip. This decision is essential for booking accommodations and aligning with her motivation to attend the conference.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Clicking on "Program" is a logical step for Abi to determine how many days to stay, as it likely contains the schedule of events. This aligns with her motivation to plan her trip effectively and her comprehensive information processing style.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Program," Abi sees a dropdown with options like "Complete Program" and specific dates, which directly relate to determining how many days to stay. This confirms she is making progress toward her goal and provides the necessary information to plan her stay.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" option is clearly listed in the dropdown menu under "Program," which suggests it will provide a summary of the conference schedule. This aligns with Abi's motivation to determine how many days to stay and fits her comprehensive information processing style.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" page provides a clear schedule of events across the conference days. This helps Abi determine how many days to stay, confirming she is making progress toward her goal and providing the comprehensive information she needs.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 3. Attitude Towards Risk, 4. Computer Self-Efficacy
-Why: The "Tracks" section is not clearly indicated as providing additional information about the duration of the conference. Abi might not feel confident that clicking "Tracks" will help her determine how many days to stay, as the current page already provides a comprehensive overview.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Tracks" dropdown provides a list of tracks and co-hosted conferences, but it doesn't clearly indicate how this information helps determine the number of days to stay. Abi might not feel confident that this action is progressing toward her goal, as the connection to her subgoal isn't explicit.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Attending" section is clearly labeled and relevant to Abi's goal of making travel arrangements. It is likely to contain information about accommodations, which aligns with her motivation to know where people are staying. The page layout supports her comprehensive information processing style, making it easy for her to identify the relevant section to click on.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Attending," Abi sees a dropdown menu with options like "Accommodation," which directly relates to her goal of finding out where people are staying. This confirms she is on the right track and making progress toward her goal. The clear labeling supports her comprehensive information processing style, helping her feel confident in her actions.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Accommodation" option is clearly visible in the dropdown menu under "Attending," which directly relates to Abi's goal of finding out where people are staying. This clear labeling aligns with her motivation and supports her comprehensive information processing style, making it easy for her to know what to do next.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Accommodation," Abi lands on a page with detailed information about the conference hotel, including its benefits and registration details. This confirms she is making progress toward her goal of finding out where people are staying. The comprehensive information provided aligns with her information processing style, ensuring she gets all the details she needs.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page contains detailed information about the accommodation, and scrolling is a natural action to view all the content. Abi's comprehensive information processing style means she is likely to scroll to ensure she gathers all necessary details about where people are staying.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits. This confirms she is making progress toward her goal of understanding where people are staying. The comprehensive details provided align with her information processing style, ensuring she gets all the information she needs.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations
-Why: Deciding how many days to stay is a crucial part of making travel arrangements for a conference. Abi would likely consider this as part of her planning process to ensure she attends all relevant sessions and events, aligning with her motivation to attend the conference effectively.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Clicking on "Program" is a logical step for Abi to determine how many days to stay, as it likely contains the schedule of events. This aligns with her motivation to plan her attendance effectively. The page layout supports her comprehensive information processing style, making it clear what action to take next.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Program," Abi sees a dropdown with detailed options, including specific dates and program overviews. This confirms she is making progress toward her goal of determining how many days to stay. The comprehensive options align with her information processing style, providing the necessary details to make an informed decision.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Clicking on "Week Overview" is a logical step for Abi to understand the overall schedule, helping her decide how many days to stay. The option is clearly labeled, aligning with her motivation and supporting her comprehensive information processing style.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" page provides a clear schedule of events, helping Abi determine how many days to stay. This confirms she is making progress toward her goal. The detailed layout aligns with her comprehensive information processing style, ensuring she gets all the information she needs.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 3. Attitude Toward Risk, 4. Computer Self-Efficacy
-Why: The page does not provide clear guidance or indication that clicking on "Tracks" will help Abi determine how many days to stay. Without explicit information or instructions, Abi may be hesitant to take this action due to her low confidence in unfamiliar tasks and risk-averse nature.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The dropdown menu under "Tracks" provides a list of options, but it may not clearly indicate how it helps determine the number of days to stay. Abi might not feel confident that this action directly contributes to her goal, as the connection between tracks and her subgoal isn't explicit. This could lead to uncertainty about her progress.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Attending" section is clearly labeled and relevant to Abi's goal of finding out where people are staying. The page provides a logical starting point for her to gather information about accommodations, aligning with her motivation and comprehensive information processing style.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking "Attending," Abi sees a dropdown menu with various options, but it doesn't directly provide information about where people are staying. Abi might not feel confident that she is making progress toward her goal, as she needs to choose another option like "Accommodation" without clear guidance. This requires additional steps and decision-making, which may not align with her comprehensive information processing style and low computer self-efficacy.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Accommodation" option is clearly listed under the "Attending" dropdown menu, which directly relates to Abi's goal of finding out where people are staying. This aligns with her motivation to gather relevant information for her travel arrangements and supports her comprehensive information processing style.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Accommodation," Abi lands on a page that provides detailed information about the conference hotel, including its location and amenities. This directly addresses her subgoal of knowing where people are staying, confirming she is making progress toward her goal. The comprehensive information aligns with her motivation and information processing style.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page provides detailed information about the accommodation, and scrolling is a natural action to view all the content. Abi's comprehensive information processing style supports her motivation to scroll and gather all necessary details about where people are staying.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits of staying at the conference hotel. This confirms she is making progress toward her goal of knowing where people are staying, and the comprehensive details align with her motivation and information processing style.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations
-Why: Deciding how many days to stay at the conference is a crucial part of making travel arrangements. Abi's motivation to attend ICSE 2019 includes planning her stay, which directly impacts her travel logistics and accommodation decisions.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Clicking on "Program" is a logical step for Abi to determine how many days to stay, as it likely contains the schedule of events. This aligns with her motivation to plan her trip effectively and her comprehensive information processing style. The page provides a clear path to relevant information.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Program," Abi sees a dropdown menu with options like "Complete Program" and specific dates. This provides a clear path to understanding the conference schedule, helping her decide how many days to stay. The information aligns with her motivation and comprehensive information processing style, confirming she is making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" option is clearly listed in the dropdown menu under "Program." It suggests a summary of the conference schedule, which is relevant to Abi's goal of determining how many days to stay. This aligns with her motivation and comprehensive information processing style, making it a logical step for her to take.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" page provides a clear schedule of events for each day of the conference. This helps Abi determine how many days to stay, aligning with her motivation and comprehensive information processing style. The visual layout makes it easy for her to see the full scope of the conference, confirming she is making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 2. Information Processing Style
-Why: The page already provides a comprehensive overview of the conference schedule, which should help Abi determine how many days to stay. Clicking on "Tracks" might not be necessary, and without clear guidance, Abi might not feel confident that this action will provide additional useful information. This could lead to confusion, given her low computer self-efficacy and preference for comprehensive information.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 2. Information Processing Style
-Why: After clicking on "Tracks," Abi sees a dropdown menu with many options, but it doesn't directly provide information about how many days to stay. The lack of clear guidance or direct information may leave her uncertain about her progress, given her low computer self-efficacy and need for comprehensive information.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Attending" section is clearly labeled and likely contains relevant information about accommodations and where people are staying. This aligns with Abi's motivation to make travel arrangements and her comprehensive information processing style, as she would logically explore this section to gather necessary details.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking "Attending," Abi is presented with a dropdown menu with multiple options, but it doesn't directly provide information about where people are staying. Abi might not immediately know which option to choose next, as the menu items are not explicitly clear about accommodations. This could hinder her progress and make her unsure if she's on the right track.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Accommodation" option in the dropdown menu is clearly labeled and directly relevant to Abi's goal of finding out where people are staying. This aligns with her motivation to make travel arrangements and her comprehensive information processing style, as it logically leads to the information she needs.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Accommodation," Abi lands on a page that provides detailed information about the conference hotel, including its location and amenities. This directly addresses her subgoal of knowing where people are staying, confirming she is making progress toward her goal. The comprehensive details align with her information processing style.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page provides detailed information about the accommodation, and scrolling is a natural action to view all the content. Abi's comprehensive information processing style means she is likely to scroll to ensure she gathers all relevant details about where people are staying.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits of staying at the conference hotel. This confirms she is making progress toward her goal of knowing where people are staying, and the comprehensive details align with her information processing style.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations
-Why: Deciding how many days to stay is a crucial part of making travel arrangements for the conference. Abi's motivation to attend ICSE 2019 would naturally include planning the duration of her stay to align with the conference schedule and her personal commitments.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Clicking on "Program" is a logical step for Abi to determine how many days to stay, as it likely contains the conference schedule. This aligns with her motivation to plan her trip effectively and her comprehensive information processing style, as she would seek detailed information about the event's duration and activities.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Program," Abi sees a dropdown with detailed options, including specific dates and program overviews. This confirms she is making progress toward determining how many days to stay, as it provides the necessary schedule information. This aligns with her motivation and comprehensive information processing style.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" option is clearly labeled and likely provides a summary of the conference schedule. This aligns with Abi's motivation to determine how many days to stay and her comprehensive information processing style, as she would seek an overview to make informed decisions.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" page provides a clear schedule of events across the conference days. This helps Abi determine how many days to stay, confirming she is making progress toward her goal. The detailed overview aligns with her motivation and comprehensive information processing style.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide clear guidance or indication that clicking on "Tracks" will help determine how many days to stay. Abi might not feel confident about this action without explicit information, and her process-oriented learning style means she prefers clear instructions over exploration.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The dropdown menu under "Tracks" provides a list of options, but it doesn't directly indicate how it will help Abi determine the number of days to stay. Without clear guidance or a direct link to the schedule, Abi might not feel confident that she is making progress toward her goal. The lack of explicit information can be confusing for her comprehensive information processing style.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Attending" section is clearly labeled and likely contains relevant information about accommodations and logistics, which aligns with Abi's goal of making travel arrangements. The page layout is straightforward, and the link is prominently displayed, making it easy for Abi to know what to do next.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Attending," Abi sees a dropdown menu with options like "Accommodation" and "Venue," which are directly related to her goal of finding out where people are staying. This clear navigation indicates she is making progress toward her goal and provides the necessary information to proceed.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Accommodation" option is clearly listed in the dropdown menu under "Attending," which directly relates to Abi's goal of finding out where people are staying. The page layout is intuitive, making it easy for Abi to know what to do next.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Accommodation," Abi lands on a page with detailed information about the conference hotel, including its location, amenities, and registration details. This confirms she is making progress toward her goal of finding out where people are staying and provides all the necessary information she needs.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits of staying at the conference hotel. This confirms she is making progress toward her goal and provides all the necessary information she needs.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations
-Why: Deciding how many days to stay is a crucial part of making travel arrangements for the conference. Abi would consider this step essential to plan her itinerary and accommodations effectively.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Clicking on "Program" is a logical step for Abi to determine how many days to stay, as it likely contains the schedule of events. The page layout is clear, and the "Program" option is easily accessible, guiding her to the information she needs.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Program," Abi sees a dropdown with detailed options, including specific dates and a complete program overview. This confirms she is making progress toward her goal of determining how many days to stay, as it provides the necessary schedule information.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" option in the dropdown menu is clearly labeled and directly relevant to Abi's goal of determining how many days to stay. The page layout is intuitive, making it easy for her to know what to do next.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" page provides a clear schedule of events across the conference days. Abi can see the timeline and activities, confirming she is making progress toward her goal of deciding how many days to stay. The information is comprehensive and well-organized.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Week Overview" page already provides a comprehensive schedule, and it's unclear why Abi would need to click on "Tracks" for additional information about how many days to stay. Without clear guidance or indication that "Tracks" will offer new insights, Abi might not know this action is necessary.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Tracks" dropdown provides a list of tracks and co-hosted conferences, but it doesn't clearly indicate how this helps Abi decide how many days to stay. Without explicit guidance or a direct link to her goal, Abi may not feel confident that she is making progress.</t>
+Why: Going up to the page and clicking on tracks is in line with Abi's motivations. She wants to gather information to complete her task, and it is possible there will be more information of value under the "tracks" links</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style &amp; 6. None of the Above
+Why: Clicking on tracks from the schedule view does not help ABI determine how many days to stay at the conference. This is a mismatch with ABI's comprehensive information processing style.</t>
   </si>
 </sst>
 </file>
@@ -747,13 +747,13 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -764,13 +764,13 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -781,13 +781,13 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -798,13 +798,13 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -815,13 +815,13 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -832,10 +832,10 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
         <v>61</v>
@@ -849,10 +849,10 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
         <v>62</v>
@@ -866,10 +866,10 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
         <v>63</v>
@@ -880,13 +880,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
         <v>64</v>
@@ -897,13 +897,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
         <v>65</v>
@@ -914,13 +914,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
         <v>66</v>
@@ -931,13 +931,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
         <v>67</v>
@@ -948,13 +948,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
         <v>68</v>

--- a/aggregated_output/PATTAYA_aggregated.xlsx
+++ b/aggregated_output/PATTAYA_aggregated.xlsx
@@ -17,348 +17,348 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to attend the conference and would likely consider knowing where people are staying as part of her travel arrangements. This aligns with her motivation to ensure a smooth trip. Additionally, her comprehensive information processing style would lead her to gather details about accommodations as part of her planning.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is attending the conference and would likely want to know where other attendees are staying to make her travel arrangements more convenient. This aligns with her motivation to attend the event and her comprehensive information processing style, as knowing where others are staying could help her make informed decisions about her own accommodations.</t>
+  </si>
+  <si>
+    <t>Answer: YES
 Facets: 1. Motivations
-Why: Abi is making travel arrangements for the conference, and knowing where people are staying is a logical step in planning her trip. It aligns with her motivation to attend the conference and ensure she has suitable accommodations.</t>
-  </si>
-  <si>
-    <t>Answer: NO 
-Facets: 1.Motivations 
-Why: Abi just wants to make traveling arrangements. This does not include getting information about where other attendees are staying.</t>
+Why: Abi is making travel arrangements to attend ICSE 2019, and knowing where people are staying is a logical step in planning her trip. This information can help her decide on accommodations and logistics, aligning with her motivation to attend the conference.</t>
   </si>
   <si>
     <t>Answer: YES
 Facets: 1. Motivations
-Why: Abi is attending the conference and would likely want to know where other attendees are staying to make her travel arrangements more convenient and possibly to network. This aligns with her motivation to attend the conference and make necessary travel plans.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to attend the conference and would likely consider knowing where people are staying as part of her travel arrangements. The page provides links under "Attending," including "Accommodation," which aligns with her comprehensive information processing style. This suggests she would think of this as a step toward achieving her overall goal of attending the conference.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1.Motivations
-Why: Getting to know where people are staying might help Abi to get in touch with other attendees with similar interests, and it could help her plan her trip better. So, it is in line with Abi's motivation to accomplish her tasks.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Attending" section is clearly labeled and relevant to Abi's goal of making travel arrangements. It suggests information related to attendance, which likely includes accommodation details. This aligns with her motivation to find out where people are staying and fits her comprehensive information processing style.</t>
+Why: Abi is making travel arrangements for the conference, and knowing where people are staying is a logical step in planning her trip. This information can help her decide on accommodations and logistics, aligning with her motivation to attend the conference.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations
+Why: Abi is attending the conference and would likely want to know where other attendees are staying to make her travel arrangements more convenient. This aligns with her motivation to attend the conference and be part of the community.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Attending" section is clearly labeled and relevant to Abi's goal of making travel arrangements. Her motivation to attend the conference and gather necessary information aligns with clicking on this section. Additionally, her comprehensive information processing style would lead her to explore this area for relevant details.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Attending," Abi sees a dropdown menu with options like "Accommodation" and "Venue," which are directly related to her goal of finding out where people are staying. This clear navigation indicates she is making progress toward her goal, and the options provide the necessary information she needs.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Accommodation" option is clearly visible in the dropdown menu under "Attending," which directly relates to Abi's goal of finding out where people are staying. Her motivation to gather this information and her comprehensive information processing style make it likely that she will know to click on this option to proceed.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Accommodation," Abi lands on a page with detailed information about the conference hotel, including its location, amenities, and registration details. This confirms she is making progress toward her goal of finding out where people are staying, and the comprehensive information aligns with her information processing style.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page contains detailed information about the accommodation, and scrolling is a natural action to view all the content. Abi's comprehensive information processing style would lead her to scroll to ensure she gathers all relevant details about where people are staying.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits of staying at the conference hotel. This confirms she is making progress toward her goal and provides her with the comprehensive information she needs.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Deciding how many days to stay is a crucial part of making travel arrangements for the conference. Abi's motivation to attend and her comprehensive information processing style would lead her to consider the duration of her stay as an important step in her planning process.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Program" section is likely to contain the schedule of events, which is essential for Abi to determine how many days to stay. Her motivation to plan her trip effectively and her comprehensive information processing style would guide her to click on "Program" to gather this information.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Program," Abi sees a dropdown with options like "Complete Program" and specific dates, which are relevant for determining how many days to stay. This indicates she is making progress toward her goal, and the options provide the necessary information she needs.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" option is clearly visible in the dropdown menu and is relevant for understanding the conference schedule. Abi's motivation to plan her stay and her comprehensive information processing style would guide her to click on this option to gather the necessary information.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" page provides a clear schedule of events across the conference days. Abi can see the main conference and co-located events, helping her determine how many days to stay. This confirms she is making progress toward her goal and provides the comprehensive information she needs.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 3. Attitude Towards Risk, 4. Computer Self-Efficacy
+Why: The page does not provide clear guidance or indication that clicking on "Tracks" will help Abi determine how many days to stay. Without explicit information or direction, Abi might be hesitant to take this action due to her low confidence in unfamiliar tasks and risk-averse nature.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking "Attending," Abi sees a dropdown menu with various options, but it doesn't directly provide information about where people are staying. She might not immediately know she is making progress toward her goal, as she needs to choose the correct option, like "Accommodation," to find the relevant information. This requires additional steps and decision-making, which might not be clear to her.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Accommodation" option is clearly labeled in the dropdown menu under "Attending," which directly relates to Abi's goal of finding out where people are staying. This aligns with her motivation and comprehensive information processing style, making it clear that clicking on "Accommodation" is the right step to take.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Accommodation," Abi lands on a page with detailed information about the conference hotel, including its name, location, and benefits of staying there. This directly addresses her goal of finding out where people are staying, confirming she made the right choice and is making progress. The comprehensive details align with her information processing style.</t>
+Why: The dropdown menu under "Tracks" provides a list of options, but it doesn't clearly indicate how it will help Abi determine the number of days to stay. Without explicit guidance or a direct link to her goal, Abi might not feel confident that she is making progress, and the information may not be comprehensive enough for her needs.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly lists "Attending" with related links, including "Accommodation," which aligns with Abi's goal of finding out where people are staying. The information is organized in a way that supports her comprehensive information processing style, making it likely she will know to click on "Attending" to find relevant details.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Attending," Abi sees a dropdown menu with options like "Accommodation," which directly relates to her goal of finding out where people are staying. This clear navigation indicates she is making progress toward her goal, and the options provided align with her comprehensive information processing style, helping her feel confident she is on the right track.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The dropdown menu clearly lists "Accommodation," which directly relates to Abi's goal of finding out where people are staying. This straightforward labeling aligns with her motivation and comprehensive information processing style, making it easy for her to know what to do next.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Accommodation," Abi lands on a page with detailed information about the conference hotel, including its benefits and registration details. This aligns with her goal of finding out where people are staying and provides comprehensive information, confirming she is making progress toward her goal.</t>
   </si>
   <si>
     <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page contains detailed information about the accommodation, and scrolling is a natural action to view all the content. Abi's comprehensive information processing style means she is likely to scroll to ensure she sees all relevant details about where people are staying.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits. This confirms she is making progress toward her goal of knowing where people are staying. The comprehensive details provided align with her motivation and information processing style, ensuring she gets all the information she needs.</t>
+Why: The page provides detailed information about the accommodation, and scrolling is a natural action to view more content. Abi's comprehensive information processing style supports her motivation to scroll and gather all necessary details about where people are staying.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits. This confirms she is making progress toward her goal of understanding where people are staying, and the comprehensive details align with her information processing style.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Deciding how many days to stay is a crucial part of making travel arrangements for a conference. Abi would consider this step important to ensure she can attend all relevant sessions and events, aligning with her motivation to attend the conference and her comprehensive information processing style.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page focuses on accommodation details and doesn't provide direct guidance or information about the conference program. Abi might not feel confident about clicking "Program" without explicit instructions or context, as her computer self-efficacy is low and she prefers process-oriented learning.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Program," Abi sees a dropdown with detailed options, including specific dates and a complete program overview. This helps her understand the conference schedule, confirming she is making progress toward deciding how many days to stay. The clear structure aligns with her comprehensive information processing style.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" option is clearly labeled in the dropdown menu under "Program," which directly relates to Abi's goal of determining how many days to stay. This aligns with her motivation and comprehensive information processing style, making it easy for her to know what to do next.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" page provides a clear schedule of events across the conference days. This helps Abi determine how many days to stay, confirming she is making progress toward her goal. The organized layout aligns with her comprehensive information processing style, ensuring she gets all the information she needs.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page provides a comprehensive overview of the week's events, which should help Abi determine how many days to stay. Clicking on "Tracks" might not be immediately clear as a necessary step, especially without explicit guidance. Abi's low computer self-efficacy and preference for process-oriented learning might make her hesitant to explore further without clear instructions.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The dropdown menu under "Tracks" provides a list of options, but it may not directly help Abi determine how many days to stay. Without clear guidance or context, Abi might not feel confident that this action is helping her progress toward her goal, given her low computer self-efficacy and preference for structured learning.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Attending" section is clearly labeled and relevant to Abi's goal of making travel arrangements. It likely contains information about accommodations, which aligns with her motivation to find out where people are staying. The page layout supports her comprehensive information processing style, making it straightforward for her to decide to click on "Attending."</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Attending," Abi sees a dropdown menu with options like "Accommodation," which directly relates to her goal of finding out where people are staying. This clear navigation confirms she is making progress toward her goal and provides the necessary information to proceed.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Accommodation" option is clearly listed in the dropdown menu under "Attending," which directly relates to Abi's goal of finding out where people are staying. This clear labeling and organization align with her motivations and information processing style, making it easy for her to know what to do next.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Accommodation," Abi lands on a page with detailed information about the conference hotel, including its location and amenities. This directly addresses her goal of finding out where people are staying, confirming she is making progress. The comprehensive details align with her information processing style, providing all the necessary information she needs.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page contains detailed information about accommodations, and scrolling is a natural action to view all the content. Abi's comprehensive information processing style supports her motivation to scroll and gather all necessary details about where people are staying.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: By scrolling, Abi can view all the detailed information about the accommodations, including hotel registration and benefits of staying at the conference hotel. This confirms she is making progress toward her goal and provides her with all the necessary information she needs.</t>
   </si>
   <si>
     <t>Answer: YES
 Facets: 1. Motivations
-Why: Deciding how many days to stay is a crucial part of making travel arrangements for the conference. Abi would naturally consider this as part of her planning process to ensure she attends the necessary sessions and events. This aligns with her motivation to effectively plan her trip.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Clicking on "Program" is a logical step for Abi to determine how many days to stay, as it likely contains the schedule of events and sessions. This aligns with her motivation to plan her trip effectively and her comprehensive information processing style. The page provides clear navigation to the program section.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Program," Abi sees a dropdown menu with options like "Complete Program" and specific dates. This indicates she is on the right track to finding the schedule and determining how many days to stay. The clear options align with her motivation and information processing style, helping her make progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" option is clearly labeled and suggests it will provide a summary of the conference schedule. This aligns with Abi's motivation to determine how many days to stay and fits her comprehensive information processing style, making it a logical step to take.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" page provides a clear schedule of events across the conference days. This helps Abi determine how many days to stay, confirming she made the right choice. The detailed overview aligns with her motivation and comprehensive information processing style, ensuring she gets all the information she needs.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page already provides a comprehensive overview of the conference schedule. Clicking on "Tracks" might not be an obvious next step for Abi, as she may not be confident it will provide additional relevant information. Without clear guidance or indication that "Tracks" will help her further, she might hesitate to take this action.</t>
+Why: Deciding how many days to stay is a crucial part of making travel arrangements for the conference. Abi's motivation to attend ICSE 2019 includes planning her stay, so she would naturally consider this as a step toward achieving her overall goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Clicking on "Program" is a logical step for Abi to determine how many days to stay, as it likely contains the schedule of events. This aligns with her motivation to plan her trip effectively and her comprehensive information processing style, making it clear what to do next.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Program," Abi sees a dropdown with options like "Complete Program" and specific dates. This confirms she is making progress toward determining how many days to stay, as it provides access to the schedule. The clear organization aligns with her motivations and information processing style, giving her the information she needs.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" option is clearly listed in the dropdown menu under "Program," which is relevant to Abi's goal of determining how many days to stay. This aligns with her motivation to plan her attendance and her comprehensive information processing style, making it clear what to do next.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" page provides a clear schedule of events across the conference days, helping Abi determine how many days to stay. This aligns with her motivation to plan effectively and supports her comprehensive information processing style, confirming she is making progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 3. Attitude Towards Risk, 4. Computer Self-Efficacy
+Why: The "Tracks" option is not clearly related to determining how many days to stay, and Abi might not feel confident about what information it will provide. Without clear guidance or indication that it will help her achieve her goal, she may hesitate to take this action.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The dropdown menu under "Tracks" presents many options, but it doesn't directly indicate how it will help Abi determine how many days to stay. Without clear guidance or a direct link to her goal, she might not feel confident that she is making progress or getting the necessary information.</t>
-  </si>
-  <si>
-    <t>Answer: NO 
-Facets: 4. Computer Self-Efficacy
-Why: Abi struggles with unfamiliar technology and thus may not understand the label "attending". She needs more information like "click here to find where people are staying"</t>
-  </si>
-  <si>
-    <t>Answer: NO 
-Facets: 3. Attitude towards Risk
-Why: There is no information on the page about what will happen after clicking "attending". Abi is risk averse and therefore will not click unless she knows more about what will happen.</t>
-  </si>
-  <si>
-    <t>Answer: YES 
-Facets: 1.Motivations 2.Attitude towards Risk
-Why: The page answers the question "Where are people staying?" and provides a link to more information. Abi is motivated to find this information and will be willing to take the risk of clicking on the link since she knows what will happen.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1.Motivations 2. Attitude towards Risk
-Why: The page answers the question "Where are people staying?"</t>
+Why: The "Tracks" dropdown provides a list of options, but it may not clearly indicate how it helps determine the number of days to stay. Without explicit guidance or a direct link to her goal, Abi might not feel confident that she is making progress or getting the necessary information.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Attending" section is clearly labeled and relevant to Abi's goal of making travel arrangements. It suggests information related to attendance, which aligns with her motivation to find out where people are staying. The page layout is straightforward, making it easy for Abi to identify this as the next step.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking "Attending," Abi is presented with a dropdown menu with multiple options, but it doesn't directly provide information about where people are staying. Abi might not immediately know which option to choose next, as the information is not clearly laid out. This could lead to confusion, as she prefers comprehensive information and may lack confidence in navigating unfamiliar options.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Accommodation" option in the dropdown menu is clearly labeled and directly relevant to Abi's goal of finding out where people are staying. This aligns with her motivation to make travel arrangements and provides a clear next step, making it easy for her to proceed confidently.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Accommodation," Abi lands on a page that provides detailed information about the conference hotel, including its location and amenities. This directly addresses her subgoal of knowing where people are staying, confirming she is making progress toward her goal. The information is comprehensive and clearly presented, aligning with her need for detailed information.</t>
   </si>
   <si>
     <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Abi is comprehensive so scrolling aligns with her facets of processing information in a batch of activities to gather information.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style 3.Computer Self-Efficacy
-Why: Abi tends to use a comprehensive information processing style when they need to get more information. Abi's style is "bursty"; first, they read a lot and then act on it in a batch of activities. Also, after scrolling, The page answers the question "Where are people staying?"</t>
-  </si>
-  <si>
-    <t>Answer: YES 
-Facets: 1.Motivations 2. Attitude towards Risk
-Why: Abi is motivated to make travel arrangements and this includes deciding how many days to stay at the conference. Abi has decided to attend the conference and is therefore willing to take the risk of making travel arrangements.</t>
-  </si>
-  <si>
-    <t>Answer: NO 
-Facets: 2. Information Processing Style 3.Computer Self-Efficacy
-Why: Abi is very unlikely to click on the “program” button and read through the whole program book. It is very complicated and hard to process the information</t>
-  </si>
-  <si>
-    <t>Answer: NO 
-Facets: 2. Information Processing Style 3.Computer Self-Efficacy
-Why: Abi is very unlikely to click on the “week overview” button and read through the whole program book. It is very complicated and hard to process the information</t>
-  </si>
-  <si>
-    <t>Answer: YES 
-Facets: 2. Information Processing Style 3.Computer Self-Efficacy
-Why: The page gives the information about overview of the conference, which provide the information about dates of the conference. Also, Abi is comfortable with comprehensive information processing techniques</t>
-  </si>
-  <si>
-    <t>Answer: YES 
-Facets: 2. Information Processing Style 3.Computer Self-Efficacy
-Why: Abi is very unlikely to go up the page and click on the “tracks” button and read through the whole program book. It is very complicated and hard to process the information. Also, Abi doesn't know the implication of going up the page on a website.</t>
-  </si>
-  <si>
-    <t>Answer: NO 
-Facets: 2. Information Processing Style 3.Computer Self-Efficacy
-Why: Abi is very unlikely to go up the page and click on the “tracks” button and read through the whole program book. It is very complicated and hard to process the information</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Attending" section is clearly labeled and likely contains relevant information about accommodations and where people are staying. This aligns with Abi's motivation to make travel arrangements and her comprehensive information processing style, as she would look for relevant sections to gather necessary details.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Attending," Abi sees a dropdown menu with options like "Accommodation," which directly relates to her goal of finding out where people are staying. This indicates she is making progress toward her goal and provides a clear path to the information she needs.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Accommodation" option is clearly listed under the "Attending" dropdown menu. This directly relates to Abi's goal of finding out where people are staying, making it intuitive for her to click on it. The page provides a straightforward path to the information she needs.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Accommodation," Abi lands on a page with detailed information about the conference hotel, including its location and amenities. This confirms she is making progress toward her goal of finding out where people are staying and provides the comprehensive information she needs.</t>
+Why: The page provides detailed information about the accommodation, but scrolling may reveal additional details or context. Abi's comprehensive information processing style means she is likely to scroll to ensure she has all the necessary information, making this action intuitive for her.</t>
   </si>
   <si>
     <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page contains detailed information about the accommodation, and scrolling is a natural action to view more content. Abi's comprehensive information processing style means she will likely scroll to ensure she gathers all relevant details about where people are staying.</t>
+Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits of staying at the conference hotel. This confirms she is making progress toward her goal of knowing where people are staying, as the page provides comprehensive details that align with her information processing style.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations
+Why: Deciding how many days to stay is a crucial part of making travel arrangements for the conference. Abi would naturally consider this as part of her planning process to ensure she attends all relevant sessions and events, aligning with her motivation to attend the conference effectively.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Program" section is likely to contain the conference schedule, which is essential for Abi to determine how many days to stay. This aligns with her motivation to plan her trip effectively. The page layout is clear, making it easy for her to identify this as the next step in her planning process.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Program," Abi sees a dropdown with options like "Complete Program" and specific dates, which are relevant for determining how many days to stay. This confirms she is making progress toward her goal, as the information is clearly organized and directly related to her planning needs.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" option is clearly labeled and suggests it will provide a summary of the conference schedule. This aligns with Abi's motivation to determine how many days to stay and fits her comprehensive information processing style, making it a logical step for her to take.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" page provides a clear schedule of events and sessions throughout the conference week. This helps Abi determine how many days to stay, confirming she is making progress toward her goal. The information is organized and comprehensive, aligning with her need for detailed planning.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "Week Overview" page already provides a comprehensive schedule, which should help Abi determine how many days to stay. Going back to click on "Tracks" might not be necessary, and without clear guidance, Abi might not know if this action will provide additional useful information. This could lead to confusion, as she prefers clear and direct information paths.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Clicking on "Tracks" leads to a dropdown with many options, but it doesn't directly provide additional information about how many days to stay. Abi might not immediately know if this action was helpful, as the information is not clearly related to her specific goal. This could lead to uncertainty, as she prefers clear and direct information paths.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Attending" section is clearly labeled and relevant to Abi's goal of making travel arrangements. It suggests information related to attendance, which aligns with her motivation to find out where people are staying. The page layout supports her comprehensive information processing style, making it likely she will click on it.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Attending," Abi sees a dropdown menu with options like "Accommodation," which directly relates to her goal of finding out where people are staying. This clear navigation indicates she is making progress toward her goal, and the options provide the necessary information.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Accommodation" option is clearly listed under the "Attending" dropdown, directly aligning with Abi's goal of finding out where people are staying. The page layout and labeling make it straightforward for her to know what to do next, supporting her comprehensive information processing style.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Accommodation," Abi lands on a page with detailed information about the conference hotel, including its benefits and registration details. This confirms she is making progress toward her goal of finding out where people are staying, and the comprehensive information aligns with her processing style.</t>
   </si>
   <si>
     <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits of staying at the conference hotel. This confirms she is making progress toward her goal and provides the comprehensive information she needs.</t>
+Why: The page contains detailed information about accommodation, and scrolling is a natural action to view more content. Abi's comprehensive information processing style supports her motivation to scroll and gather all necessary details.</t>
   </si>
   <si>
     <t>Answer: YES
 Facets: 1. Motivations
-Why: Deciding how many days to stay is a crucial part of making travel arrangements for the conference. Abi would consider this step essential to ensure she attends all relevant sessions and events, aligning with her motivation to attend the conference effectively.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" section is likely to contain the schedule of events, which is essential for Abi to determine how many days to stay. This aligns with her motivation to plan her trip effectively and her comprehensive information processing style, as she would seek out detailed schedules to make informed decisions.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Program," Abi sees options like "Complete Program" and specific dates, which are crucial for determining how many days to stay. This confirms she is making progress toward her goal and provides the detailed schedule information she needs.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" option is clearly listed under the "Program" dropdown. It suggests a summary of the conference schedule, which is relevant for Abi to determine how many days to stay. This aligns with her motivation to plan effectively and her comprehensive approach to gathering information.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" page provides a clear schedule of events across the conference days. This helps Abi determine how many days to stay, confirming she is making progress toward her goal and providing the comprehensive information she needs.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 3. Attitude Towards Risk, 4. Computer Self-Efficacy
-Why: The "Tracks" option is not clearly related to determining how many days to stay. Without explicit information indicating that "Tracks" will provide additional relevant details, Abi might be hesitant to click due to her risk-averse nature and low confidence in unfamiliar tasks.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 3. Attitude Towards Risk, 4. Computer Self-Efficacy
-Why: The "Tracks" dropdown provides a list of options, but it doesn't clearly indicate how it will help Abi determine how many days to stay. Without explicit guidance or relevant information, Abi may not feel confident that she is making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists "Attending" with relevant links, including "Accommodation," which aligns with Abi's goal of finding out where people are staying. The organization of the page supports her comprehensive information processing style, making it straightforward for her to know what to do at this step.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Attending," Abi sees a dropdown menu with options like "Accommodation," which directly relates to her goal of finding out where people are staying. This clear navigation confirms she is making progress toward her goal and provides the necessary information to proceed.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The dropdown menu under "Attending" clearly lists "Accommodation," which directly relates to Abi's goal of finding out where people are staying. The page is straightforward and provides the necessary information for her to take this action confidently.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Accommodation," Abi lands on a page with detailed information about the conference hotel, including its location, amenities, and registration details. This aligns with her goal of finding out where people are staying and provides comprehensive information, confirming she is making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page contains detailed information about the accommodation, and scrolling is a natural action to view all the content. Abi's comprehensive information processing style means she will likely scroll to ensure she gathers all necessary details about where people are staying.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration, benefits of staying at the conference hotel, and the address. This confirms she is making progress toward her goal and provides all the information she needs about where people are staying.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Deciding how many days to stay is a crucial part of making travel arrangements for a conference. Abi is motivated to attend and would consider the conference schedule and her travel plans, aligning with her comprehensive information processing style. This step is essential for achieving her overall goal of attending the conference.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is focused on accommodation details and doesn't provide direct guidance or links to the conference program. Abi might not feel confident about what to do next without explicit instructions or a clear path to find the program information, which is necessary to determine how many days to stay.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Program," Abi sees a dropdown menu with options like "Complete Program" and specific dates. This provides a clear path to understanding the conference schedule, helping her determine how many days to stay. This confirms she is making progress toward her goal and provides the necessary information.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The dropdown menu under "Program" includes "Week Overview," which is relevant for understanding the conference schedule. This option aligns with Abi's goal of determining how many days to stay, and the page provides a clear path to the information she needs.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" page provides a clear schedule of events and sessions throughout the conference week. This helps Abi determine how many days to stay, confirming she is making progress toward her goal and providing all the necessary information.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The "Week Overview" page already provides a comprehensive schedule, and there is no clear indication that clicking on "Tracks" would provide additional necessary information for determining how many days to stay. Abi might not feel confident about what to do next without explicit instructions or a clear path.</t>
+Why: Deciding how many days to stay is a crucial part of making travel arrangements for a conference. Abi would naturally consider this as part of her planning process to ensure she attends the necessary sessions and events.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Program" section is likely to contain the conference schedule, which is essential for Abi to determine how many days to stay. The page layout and clear labeling make it straightforward for her to know that clicking "Program" will help her achieve her goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Program," Abi sees a dropdown with options like "Complete Program" and specific dates, which directly relate to her goal of determining how many days to stay. This confirms she is making progress toward her goal, and the detailed options align with her comprehensive information processing style.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" option is clearly labeled and suggests it will provide a summary of the conference schedule. This aligns with Abi's goal of determining how many days to stay, and the page layout supports her comprehensive information processing style.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" page provides a clear schedule of events across the conference days, helping Abi determine how many days to stay. This confirms she is making progress toward her goal, and the organized layout aligns with her comprehensive information processing style.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 3. Attitude Toward Risk, 4. Computer Self-Efficacy
+Why: The page already provides a comprehensive overview of the conference schedule. Clicking on "Tracks" without clear indication of additional relevant information might not seem necessary to Abi. She may be hesitant to explore further without explicit guidance, due to her low confidence in unfamiliar tasks.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Clicking on "Tracks" leads to a dropdown with many options, but it doesn't directly provide information about the duration of the conference or help determine how many days to stay. Abi might not feel she is making progress toward her goal, as the information is not clearly aligned with her specific need.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 3. Attitude Towards Risk &amp; 6.None of the Above
-Why: ABI has a negative attitude towards risk and prefers to use familiar technologies. Clicking on "attending" without knowing where it would take her is something new, not in line with her attitude toward risk. ABI's tendency is to get all the information before clicking on anything, which is not available on the page.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations &amp; 2. Information Processing Style 
-Why: ABI's motivation is accomplishing the task. She has a comprehensive information processing style. Clicking on the "attending" button takes her to a new window where she can potentially get more information about accommodations, which will be helpful for her, so it is in line with her motivations and information processing style. So, she will click on the attending button.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations
-Why: This action takes ABI closer to achieving her goal of finding out where people are staying at the conference.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style &amp; 6. None of the Above
-Why: "Accommodations" in the navigation bar is a clue that suggests this is information on the topic she needs. Because ABI's information processing style is to process information in a comprehensive manner and gather information before acting, she would likely click on this link</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: ABI processes information comprehensively. So, scrolling the page up and down to get a complete picture of the page and its information aligns with her information processing style.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style &amp; 6. None of the Above
-Why: Though scrolling aligns with ABI's information processing style, there is no new information gained from scrolling further. So, she isn't progressing toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Determining how many days to stay at the conference is a step toward achieving the overall use case of making travel arrangements. ABI's information processing style is comprehensive, so she would likely consider this as a step in her process of gathering information.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 3. Attitude Towards Risk &amp; 6. None of the Above
-Why: The text of the button "program" is not descriptive enough for her to understand that it will have useful info about the number of days of the conference. ABI's risk aversion trait leads her to avoid unfamiliar technologies/actions when she is uncertain about the outcome, so she won't click.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 5. Learning Style &amp; 6. None of the Above
-Why: ABI doesn't have information about how long the conference is. The webpage doesn't provide the duration of the conference. The page only shows the event happening over four days, which doesn't give her a clear idea of how many days she should stay at the conference. Also, Clicking on the conference program without understanding the page fully is not in line with ABI's process-oriented learning style.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 6. None of the Above
-Why: Clicking on "Week Overview" without understanding what it is about is not in line with ABI's comfort with familiar technologies and avoiding unfamiliar ones.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style &amp; 6. None of the Above
-Why: The week overview page shows the schedule for all the days of the conference, which gives ABI the information she needs to determine how many days to stay at the conference. This aligns with ABI's comprehensive information processing style.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations
-Why: Going up to the page and clicking on tracks is in line with Abi's motivations. She wants to gather information to complete her task, and it is possible there will be more information of value under the "tracks" links</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style &amp; 6. None of the Above
-Why: Clicking on tracks from the schedule view does not help ABI determine how many days to stay at the conference. This is a mismatch with ABI's comprehensive information processing style.</t>
+Why: The dropdown menu provides a list of tracks, but it doesn't directly indicate how this helps determine the number of days to stay. Abi may not feel confident that this action is progressing toward her goal, as the connection between tracks and her subgoal isn't explicit.</t>
   </si>
 </sst>
 </file>
@@ -747,13 +747,13 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -764,13 +764,13 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -781,13 +781,13 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -798,13 +798,13 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -815,13 +815,13 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -832,13 +832,13 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -849,10 +849,10 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
         <v>62</v>
@@ -866,10 +866,10 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
         <v>63</v>
@@ -880,13 +880,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
         <v>64</v>
@@ -897,13 +897,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
         <v>65</v>
@@ -914,13 +914,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
         <v>66</v>
@@ -931,13 +931,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
         <v>67</v>
@@ -948,13 +948,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
         <v>68</v>
